--- a/OHLC/BITSTAMP_SPOT_BTC_USD.xlsx
+++ b/OHLC/BITSTAMP_SPOT_BTC_USD.xlsx
@@ -491,41 +491,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-12-11T00:00:00.0000000Z</t>
+          <t>2021-11-22T00:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-12-11T00:10:00.0000000Z</t>
+          <t>2021-11-22T00:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-12-11T00:00:14.3480000Z</t>
+          <t>2021-11-22T00:00:00.2350000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-12-11T00:09:56.8230000Z</t>
+          <t>2021-11-22T00:09:59.3570000Z</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>47179.53</v>
+        <v>58679.27</v>
       </c>
       <c r="G2" t="n">
-        <v>47361.08</v>
+        <v>58775.68</v>
       </c>
       <c r="H2" t="n">
-        <v>47049.46</v>
+        <v>58175.95</v>
       </c>
       <c r="I2" t="n">
-        <v>47105.29</v>
+        <v>58320.06</v>
       </c>
       <c r="J2" t="n">
-        <v>13.83863918</v>
+        <v>48.62792159</v>
       </c>
       <c r="K2" t="n">
-        <v>158</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -534,41 +534,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-12-11T00:10:00.0000000Z</t>
+          <t>2021-11-22T00:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-12-11T00:20:00.0000000Z</t>
+          <t>2021-11-22T00:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-12-11T00:10:05.9290000Z</t>
+          <t>2021-11-22T00:10:00.1520000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-12-11T00:19:59.0060000Z</t>
+          <t>2021-11-22T00:19:58.2880000Z</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>47092.48</v>
+        <v>58317.13</v>
       </c>
       <c r="G3" t="n">
-        <v>47169.5</v>
+        <v>58379.9</v>
       </c>
       <c r="H3" t="n">
-        <v>46789</v>
+        <v>58036.57</v>
       </c>
       <c r="I3" t="n">
-        <v>47010.53</v>
+        <v>58283.09</v>
       </c>
       <c r="J3" t="n">
-        <v>67.52688469</v>
+        <v>20.11915553</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
@@ -577,41 +577,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-12-11T00:20:00.0000000Z</t>
+          <t>2021-11-22T00:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-12-11T00:30:00.0000000Z</t>
+          <t>2021-11-22T00:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-12-11T00:20:00.0800000Z</t>
+          <t>2021-11-22T00:21:09.0900000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-12-11T00:29:58.4710000Z</t>
+          <t>2021-11-22T00:29:59.2400000Z</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>47006.3</v>
+        <v>58280.42</v>
       </c>
       <c r="G4" t="n">
-        <v>48301</v>
+        <v>58408.11</v>
       </c>
       <c r="H4" t="n">
-        <v>46903.48</v>
+        <v>58241.01</v>
       </c>
       <c r="I4" t="n">
-        <v>48182.48</v>
+        <v>58290.42</v>
       </c>
       <c r="J4" t="n">
-        <v>171.00944704</v>
+        <v>8.76259342</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -620,41 +620,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-12-11T00:30:00.0000000Z</t>
+          <t>2021-11-22T00:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-12-11T00:40:00.0000000Z</t>
+          <t>2021-11-22T00:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-12-11T00:30:01.3800000Z</t>
+          <t>2021-11-22T00:30:30.8010000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-12-11T00:39:56.0800000Z</t>
+          <t>2021-11-22T00:39:57.8560000Z</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>48182.73</v>
+        <v>58280</v>
       </c>
       <c r="G5" t="n">
-        <v>48481.45</v>
+        <v>58388.7</v>
       </c>
       <c r="H5" t="n">
-        <v>48016.59</v>
+        <v>58241.82</v>
       </c>
       <c r="I5" t="n">
-        <v>48272.86</v>
+        <v>58250</v>
       </c>
       <c r="J5" t="n">
-        <v>33.63834518</v>
+        <v>4.68070482</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -663,41 +663,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-12-11T00:40:00.0000000Z</t>
+          <t>2021-11-22T00:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-12-11T00:50:00.0000000Z</t>
+          <t>2021-11-22T00:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-12-11T00:40:00.0450000Z</t>
+          <t>2021-11-22T00:40:07.9730000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-12-11T00:49:43.1540000Z</t>
+          <t>2021-11-22T00:49:03.3670000Z</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>48229.86</v>
+        <v>58213.37</v>
       </c>
       <c r="G6" t="n">
-        <v>48229.86</v>
+        <v>58294.11</v>
       </c>
       <c r="H6" t="n">
-        <v>47780</v>
+        <v>58131.42</v>
       </c>
       <c r="I6" t="n">
-        <v>47944.59</v>
+        <v>58294.11</v>
       </c>
       <c r="J6" t="n">
-        <v>18.54307327</v>
+        <v>2.39823487</v>
       </c>
       <c r="K6" t="n">
-        <v>194</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -706,41 +706,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-12-11T00:50:00.0000000Z</t>
+          <t>2021-11-22T00:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-12-11T01:00:00.0000000Z</t>
+          <t>2021-11-22T01:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-12-11T00:50:06.7700000Z</t>
+          <t>2021-11-22T00:50:13.0970000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-12-11T00:59:58.1070000Z</t>
+          <t>2021-11-22T00:59:49.4870000Z</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>47992.68</v>
+        <v>58261.28</v>
       </c>
       <c r="G7" t="n">
-        <v>48019.69</v>
+        <v>58312.16</v>
       </c>
       <c r="H7" t="n">
-        <v>47697.97</v>
+        <v>58144.74</v>
       </c>
       <c r="I7" t="n">
-        <v>47785.54</v>
+        <v>58171.53</v>
       </c>
       <c r="J7" t="n">
-        <v>13.55743664</v>
+        <v>6.99330337</v>
       </c>
       <c r="K7" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -749,41 +749,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-12-11T01:00:00.0000000Z</t>
+          <t>2021-11-22T01:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-12-11T01:10:00.0000000Z</t>
+          <t>2021-11-22T01:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-12-11T01:00:08.5650000Z</t>
+          <t>2021-11-22T01:00:04.6020000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-12-11T01:09:49.6660000Z</t>
+          <t>2021-11-22T01:09:55.4280000Z</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>47753.96</v>
+        <v>58165.54</v>
       </c>
       <c r="G8" t="n">
-        <v>48077.7</v>
+        <v>58301.78</v>
       </c>
       <c r="H8" t="n">
-        <v>47697.92</v>
+        <v>58143.74</v>
       </c>
       <c r="I8" t="n">
-        <v>47950.47</v>
+        <v>58177.93</v>
       </c>
       <c r="J8" t="n">
-        <v>17.45000813</v>
+        <v>6.6257334</v>
       </c>
       <c r="K8" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -792,41 +792,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-12-11T01:10:00.0000000Z</t>
+          <t>2021-11-22T01:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-12-11T01:20:00.0000000Z</t>
+          <t>2021-11-22T01:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-12-11T01:10:06.5690000Z</t>
+          <t>2021-11-22T01:10:10.9260000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-12-11T01:19:58.6720000Z</t>
+          <t>2021-11-22T01:19:59.6460000Z</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>47937.64</v>
+        <v>58170.23</v>
       </c>
       <c r="G9" t="n">
-        <v>48080.93</v>
+        <v>58170.23</v>
       </c>
       <c r="H9" t="n">
-        <v>47848.04</v>
+        <v>57750.58</v>
       </c>
       <c r="I9" t="n">
-        <v>48071.02</v>
+        <v>57750.58</v>
       </c>
       <c r="J9" t="n">
-        <v>7.89949983</v>
+        <v>33.66046968</v>
       </c>
       <c r="K9" t="n">
-        <v>147</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
@@ -835,41 +835,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-12-11T01:20:00.0000000Z</t>
+          <t>2021-11-22T01:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-12-11T01:30:00.0000000Z</t>
+          <t>2021-11-22T01:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-12-11T01:20:08.5400000Z</t>
+          <t>2021-11-22T01:20:01.8420000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-12-11T01:29:36.5570000Z</t>
+          <t>2021-11-22T01:29:27.6930000Z</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>48057.1</v>
+        <v>57793.6</v>
       </c>
       <c r="G10" t="n">
-        <v>48076.64</v>
+        <v>58079</v>
       </c>
       <c r="H10" t="n">
-        <v>47897.73</v>
+        <v>57728.99</v>
       </c>
       <c r="I10" t="n">
-        <v>48065.61</v>
+        <v>58079</v>
       </c>
       <c r="J10" t="n">
-        <v>9.98721862</v>
+        <v>7.85018745</v>
       </c>
       <c r="K10" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -878,41 +878,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-12-11T01:30:00.0000000Z</t>
+          <t>2021-11-22T01:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-12-11T01:40:00.0000000Z</t>
+          <t>2021-11-22T01:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-12-11T01:30:03.1450000Z</t>
+          <t>2021-11-22T01:30:00.7710000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-12-11T01:39:33.8090000Z</t>
+          <t>2021-11-22T01:39:28.5440000Z</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>48065.29</v>
+        <v>58047.85</v>
       </c>
       <c r="G11" t="n">
-        <v>48270.03</v>
+        <v>58232.64</v>
       </c>
       <c r="H11" t="n">
-        <v>48013.83</v>
+        <v>58047.85</v>
       </c>
       <c r="I11" t="n">
-        <v>48270.03</v>
+        <v>58084.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.32358074</v>
+        <v>41.91578023</v>
       </c>
       <c r="K11" t="n">
-        <v>95</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
@@ -921,41 +921,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-12-11T01:40:00.0000000Z</t>
+          <t>2021-11-22T01:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-12-11T01:50:00.0000000Z</t>
+          <t>2021-11-22T01:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-12-11T01:40:51.2120000Z</t>
+          <t>2021-11-22T01:42:24.3960000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-12-11T01:49:52.2130000Z</t>
+          <t>2021-11-22T01:49:36.9670000Z</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>48198.04</v>
+        <v>58136.81</v>
       </c>
       <c r="G12" t="n">
-        <v>48272.8</v>
+        <v>58192.43</v>
       </c>
       <c r="H12" t="n">
-        <v>47939.1</v>
+        <v>58046.29</v>
       </c>
       <c r="I12" t="n">
-        <v>47939.1</v>
+        <v>58047.13</v>
       </c>
       <c r="J12" t="n">
-        <v>16.42853933</v>
+        <v>3.49540557</v>
       </c>
       <c r="K12" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -964,41 +964,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-12-11T01:50:00.0000000Z</t>
+          <t>2021-11-22T01:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-12-11T02:00:00.0000000Z</t>
+          <t>2021-11-22T02:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-12-11T01:50:13.1930000Z</t>
+          <t>2021-11-22T01:50:04.1590000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-12-11T01:59:51.5310000Z</t>
+          <t>2021-11-22T01:59:59.3400000Z</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>47972.48</v>
+        <v>58014.95</v>
       </c>
       <c r="G13" t="n">
-        <v>48023.47</v>
+        <v>58161.42</v>
       </c>
       <c r="H13" t="n">
-        <v>47920</v>
+        <v>57989.66</v>
       </c>
       <c r="I13" t="n">
-        <v>47949.99</v>
+        <v>58108.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.62355123</v>
+        <v>5.76404795</v>
       </c>
       <c r="K13" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -1007,41 +1007,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-12-11T02:00:00.0000000Z</t>
+          <t>2021-11-22T02:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-12-11T02:10:00.0000000Z</t>
+          <t>2021-11-22T02:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-12-11T02:00:23.0020000Z</t>
+          <t>2021-11-22T02:00:01.3410000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-12-11T02:09:57.0040000Z</t>
+          <t>2021-11-22T02:09:47.4350000Z</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>47936.28</v>
+        <v>58082.71</v>
       </c>
       <c r="G14" t="n">
-        <v>48239</v>
+        <v>58166.24</v>
       </c>
       <c r="H14" t="n">
-        <v>47934.43</v>
+        <v>58049.35</v>
       </c>
       <c r="I14" t="n">
-        <v>48218.52</v>
+        <v>58110.96</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25263227</v>
+        <v>4.07101121</v>
       </c>
       <c r="K14" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -1050,41 +1050,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-12-11T02:10:00.0000000Z</t>
+          <t>2021-11-22T02:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-12-11T02:20:00.0000000Z</t>
+          <t>2021-11-22T02:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-12-11T02:10:02.0500000Z</t>
+          <t>2021-11-22T02:10:04.3060000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021-12-11T02:19:28.5930000Z</t>
+          <t>2021-11-22T02:19:57.1640000Z</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>48234.41</v>
+        <v>58104.64</v>
       </c>
       <c r="G15" t="n">
-        <v>48234.41</v>
+        <v>58104.64</v>
       </c>
       <c r="H15" t="n">
-        <v>48000.11</v>
+        <v>57877.91</v>
       </c>
       <c r="I15" t="n">
-        <v>48013.21</v>
+        <v>57935.18</v>
       </c>
       <c r="J15" t="n">
-        <v>15.57006735</v>
+        <v>17.24973109</v>
       </c>
       <c r="K15" t="n">
-        <v>91</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
@@ -1093,41 +1093,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-11T02:20:00.0000000Z</t>
+          <t>2021-11-22T02:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-12-11T02:30:00.0000000Z</t>
+          <t>2021-11-22T02:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-12-11T02:20:13.7560000Z</t>
+          <t>2021-11-22T02:20:03.4470000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-12-11T02:29:57.6150000Z</t>
+          <t>2021-11-22T02:29:54.1930000Z</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>48006.11</v>
+        <v>57925.47</v>
       </c>
       <c r="G16" t="n">
-        <v>48176.41</v>
+        <v>57925.47</v>
       </c>
       <c r="H16" t="n">
-        <v>47996.88</v>
+        <v>57407.9</v>
       </c>
       <c r="I16" t="n">
-        <v>48121.91</v>
+        <v>57501.63</v>
       </c>
       <c r="J16" t="n">
-        <v>3.49036198</v>
+        <v>68.54488671</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17">
@@ -1136,41 +1136,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-12-11T02:30:00.0000000Z</t>
+          <t>2021-11-22T02:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-12-11T02:40:00.0000000Z</t>
+          <t>2021-11-22T02:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-12-11T02:30:12.1670000Z</t>
+          <t>2021-11-22T02:30:02.4590000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-12-11T02:39:36.6130000Z</t>
+          <t>2021-11-22T02:39:31.7680000Z</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>48131.04</v>
+        <v>57488.73</v>
       </c>
       <c r="G17" t="n">
-        <v>48215.12</v>
+        <v>57758.44</v>
       </c>
       <c r="H17" t="n">
-        <v>47960</v>
+        <v>57373.91</v>
       </c>
       <c r="I17" t="n">
-        <v>48168.08</v>
+        <v>57728.34</v>
       </c>
       <c r="J17" t="n">
-        <v>1.34463096</v>
+        <v>33.64774752</v>
       </c>
       <c r="K17" t="n">
-        <v>69</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18">
@@ -1179,41 +1179,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-12-11T02:40:00.0000000Z</t>
+          <t>2021-11-22T02:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-12-11T02:50:00.0000000Z</t>
+          <t>2021-11-22T02:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-12-11T02:40:07.6580000Z</t>
+          <t>2021-11-22T02:40:03.3100000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-12-11T02:49:56.6900000Z</t>
+          <t>2021-11-22T02:49:45.2410000Z</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>48155.18</v>
+        <v>57734.08</v>
       </c>
       <c r="G18" t="n">
-        <v>48267.63</v>
+        <v>57850</v>
       </c>
       <c r="H18" t="n">
-        <v>48131.01</v>
+        <v>57672.6</v>
       </c>
       <c r="I18" t="n">
-        <v>48173.62</v>
+        <v>57672.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88834737</v>
+        <v>3.39046748</v>
       </c>
       <c r="K18" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -1222,41 +1222,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-12-11T02:50:00.0000000Z</t>
+          <t>2021-11-22T02:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-12-11T03:00:00.0000000Z</t>
+          <t>2021-11-22T03:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-12-11T02:50:18.9530000Z</t>
+          <t>2021-11-22T02:50:11.8120000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-12-11T02:59:49.6320000Z</t>
+          <t>2021-11-22T02:59:19.2650000Z</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48165.03</v>
+        <v>57707.35</v>
       </c>
       <c r="G19" t="n">
-        <v>48279</v>
+        <v>57862.81</v>
       </c>
       <c r="H19" t="n">
-        <v>48160.31</v>
+        <v>57707.35</v>
       </c>
       <c r="I19" t="n">
-        <v>48279</v>
+        <v>57747.67</v>
       </c>
       <c r="J19" t="n">
-        <v>4.44920853</v>
+        <v>1.97238261</v>
       </c>
       <c r="K19" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -1265,41 +1265,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-12-11T03:00:00.0000000Z</t>
+          <t>2021-11-22T03:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-12-11T03:10:00.0000000Z</t>
+          <t>2021-11-22T03:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-12-11T03:00:03.9850000Z</t>
+          <t>2021-11-22T03:00:22.8300000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-12-11T03:09:48.6720000Z</t>
+          <t>2021-11-22T03:09:24.9440000Z</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>48279</v>
+        <v>57705.14</v>
       </c>
       <c r="G20" t="n">
-        <v>48433.96</v>
+        <v>57813.47</v>
       </c>
       <c r="H20" t="n">
-        <v>48235.55</v>
+        <v>57683.35</v>
       </c>
       <c r="I20" t="n">
-        <v>48341.95</v>
+        <v>57744.55</v>
       </c>
       <c r="J20" t="n">
-        <v>15.6074501</v>
+        <v>1.85417181</v>
       </c>
       <c r="K20" t="n">
-        <v>152</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1308,41 +1308,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-12-11T03:10:00.0000000Z</t>
+          <t>2021-11-22T03:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-12-11T03:20:00.0000000Z</t>
+          <t>2021-11-22T03:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-12-11T03:10:01.4710000Z</t>
+          <t>2021-11-22T03:10:31.2780000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-12-11T03:19:47.8750000Z</t>
+          <t>2021-11-22T03:18:24.5500000Z</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>48351.25</v>
+        <v>57777.7</v>
       </c>
       <c r="G21" t="n">
-        <v>48710</v>
+        <v>57820.74</v>
       </c>
       <c r="H21" t="n">
-        <v>48327.38</v>
+        <v>57721.79</v>
       </c>
       <c r="I21" t="n">
-        <v>48637.66</v>
+        <v>57820.74</v>
       </c>
       <c r="J21" t="n">
-        <v>27.07380525</v>
+        <v>6.73874811</v>
       </c>
       <c r="K21" t="n">
-        <v>203</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -1351,41 +1351,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-12-11T03:20:00.0000000Z</t>
+          <t>2021-11-22T03:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-12-11T03:30:00.0000000Z</t>
+          <t>2021-11-22T03:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-12-11T03:20:04.9420000Z</t>
+          <t>2021-11-22T03:20:10.8970000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-12-11T03:29:51.8620000Z</t>
+          <t>2021-11-22T03:29:52.5220000Z</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>48621.07</v>
+        <v>57808.19</v>
       </c>
       <c r="G22" t="n">
-        <v>48666.26</v>
+        <v>57808.19</v>
       </c>
       <c r="H22" t="n">
-        <v>48482.54</v>
+        <v>57650.85</v>
       </c>
       <c r="I22" t="n">
-        <v>48491.19</v>
+        <v>57650.85</v>
       </c>
       <c r="J22" t="n">
-        <v>6.31127231</v>
+        <v>4.51997568</v>
       </c>
       <c r="K22" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1394,41 +1394,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-12-11T03:30:00.0000000Z</t>
+          <t>2021-11-22T03:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-12-11T03:40:00.0000000Z</t>
+          <t>2021-11-22T03:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-12-11T03:30:03.6060000Z</t>
+          <t>2021-11-22T03:30:15.2110000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-12-11T03:39:59.0370000Z</t>
+          <t>2021-11-22T03:39:56.5630000Z</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>48477.96</v>
+        <v>57652.7</v>
       </c>
       <c r="G23" t="n">
-        <v>48609.48</v>
+        <v>57815.46</v>
       </c>
       <c r="H23" t="n">
-        <v>48437.13</v>
+        <v>57072</v>
       </c>
       <c r="I23" t="n">
-        <v>48441.65</v>
+        <v>57815.46</v>
       </c>
       <c r="J23" t="n">
-        <v>2.33236892</v>
+        <v>59.64850364</v>
       </c>
       <c r="K23" t="n">
-        <v>58</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24">
@@ -1437,41 +1437,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-12-11T03:40:00.0000000Z</t>
+          <t>2021-11-22T03:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-12-11T03:50:00.0000000Z</t>
+          <t>2021-11-22T03:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-12-11T03:40:01.8970000Z</t>
+          <t>2021-11-22T03:40:25.1970000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021-12-11T03:49:46.1830000Z</t>
+          <t>2021-11-22T03:48:49.0630000Z</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>48425</v>
+        <v>57731.64</v>
       </c>
       <c r="G24" t="n">
-        <v>48479.81</v>
+        <v>57738.47</v>
       </c>
       <c r="H24" t="n">
-        <v>48358.88</v>
+        <v>57450.01</v>
       </c>
       <c r="I24" t="n">
-        <v>48358.88</v>
+        <v>57573.25</v>
       </c>
       <c r="J24" t="n">
-        <v>7.06346936</v>
+        <v>10.30675793</v>
       </c>
       <c r="K24" t="n">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1480,41 +1480,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-11T03:50:00.0000000Z</t>
+          <t>2021-11-22T03:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-12-11T04:00:00.0000000Z</t>
+          <t>2021-11-22T04:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-12-11T03:50:05.9550000Z</t>
+          <t>2021-11-22T03:50:14.6310000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-12-11T03:59:20.7730000Z</t>
+          <t>2021-11-22T03:59:53.0730000Z</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>48358.65</v>
+        <v>57541.05</v>
       </c>
       <c r="G25" t="n">
-        <v>48430.58</v>
+        <v>57541.05</v>
       </c>
       <c r="H25" t="n">
-        <v>48320</v>
+        <v>57339.64</v>
       </c>
       <c r="I25" t="n">
-        <v>48361.69</v>
+        <v>57442.03</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7368058</v>
+        <v>3.31309844</v>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1523,41 +1523,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-12-11T04:00:00.0000000Z</t>
+          <t>2021-11-22T04:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-12-11T04:10:00.0000000Z</t>
+          <t>2021-11-22T04:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-12-11T04:00:02.4010000Z</t>
+          <t>2021-11-22T04:00:05.4450000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-12-11T04:09:44.8520000Z</t>
+          <t>2021-11-22T04:09:39.3310000Z</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>48363.34</v>
+        <v>57387.37</v>
       </c>
       <c r="G26" t="n">
-        <v>48482.17</v>
+        <v>57554.2</v>
       </c>
       <c r="H26" t="n">
-        <v>48321.24</v>
+        <v>57272</v>
       </c>
       <c r="I26" t="n">
-        <v>48473.34</v>
+        <v>57484.72</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7149141</v>
+        <v>9.211836140000001</v>
       </c>
       <c r="K26" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -1566,41 +1566,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-12-11T04:10:00.0000000Z</t>
+          <t>2021-11-22T04:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-12-11T04:20:00.0000000Z</t>
+          <t>2021-11-22T04:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-12-11T04:10:23.2370000Z</t>
+          <t>2021-11-22T04:10:54.9040000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-12-11T04:19:45.6260000Z</t>
+          <t>2021-11-22T04:19:51.1730000Z</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>48485.48</v>
+        <v>57491.86</v>
       </c>
       <c r="G27" t="n">
-        <v>48526.04</v>
+        <v>57562.73</v>
       </c>
       <c r="H27" t="n">
-        <v>48414.84</v>
+        <v>57371.62</v>
       </c>
       <c r="I27" t="n">
-        <v>48414.84</v>
+        <v>57379.38</v>
       </c>
       <c r="J27" t="n">
-        <v>11.18254486</v>
+        <v>3.34558596</v>
       </c>
       <c r="K27" t="n">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -1609,41 +1609,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-12-11T04:20:00.0000000Z</t>
+          <t>2021-11-22T04:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-12-11T04:30:00.0000000Z</t>
+          <t>2021-11-22T04:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021-12-11T04:20:08.6530000Z</t>
+          <t>2021-11-22T04:20:10.3110000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-12-11T04:29:47.8530000Z</t>
+          <t>2021-11-22T04:29:34.0590000Z</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>48409.87</v>
+        <v>57392.88</v>
       </c>
       <c r="G28" t="n">
-        <v>48413.12</v>
+        <v>57558.65</v>
       </c>
       <c r="H28" t="n">
-        <v>48339.25</v>
+        <v>57370.28</v>
       </c>
       <c r="I28" t="n">
-        <v>48388.79</v>
+        <v>57451.86</v>
       </c>
       <c r="J28" t="n">
-        <v>1.84998627</v>
+        <v>1.86929334</v>
       </c>
       <c r="K28" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1652,41 +1652,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-12-11T04:30:00.0000000Z</t>
+          <t>2021-11-22T04:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-12-11T04:40:00.0000000Z</t>
+          <t>2021-11-22T04:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021-12-11T04:30:47.0300000Z</t>
+          <t>2021-11-22T04:30:01.5650000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021-12-11T04:39:59.4610000Z</t>
+          <t>2021-11-22T04:39:05.3420000Z</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>48384.51</v>
+        <v>57436.06</v>
       </c>
       <c r="G29" t="n">
-        <v>48488.33</v>
+        <v>57436.06</v>
       </c>
       <c r="H29" t="n">
-        <v>48326.18</v>
+        <v>57285.29</v>
       </c>
       <c r="I29" t="n">
-        <v>48423.12</v>
+        <v>57378.8</v>
       </c>
       <c r="J29" t="n">
-        <v>0.64101821</v>
+        <v>7.43824167</v>
       </c>
       <c r="K29" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -1695,41 +1695,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-12-11T04:40:00.0000000Z</t>
+          <t>2021-11-22T04:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-12-11T04:50:00.0000000Z</t>
+          <t>2021-11-22T04:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-12-11T04:40:02.0240000Z</t>
+          <t>2021-11-22T04:40:15.1220000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-12-11T04:49:47.2670000Z</t>
+          <t>2021-11-22T04:48:47.1310000Z</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>48439.79</v>
+        <v>57418.71</v>
       </c>
       <c r="G30" t="n">
-        <v>48499.68</v>
+        <v>57467.06</v>
       </c>
       <c r="H30" t="n">
-        <v>48378.14</v>
+        <v>57215.11</v>
       </c>
       <c r="I30" t="n">
-        <v>48480.17</v>
+        <v>57328.67</v>
       </c>
       <c r="J30" t="n">
-        <v>3.36970969</v>
+        <v>6.33979053</v>
       </c>
       <c r="K30" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -1738,41 +1738,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-12-11T04:50:00.0000000Z</t>
+          <t>2021-11-22T04:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-12-11T05:00:00.0000000Z</t>
+          <t>2021-11-22T05:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-12-11T04:50:13.3010000Z</t>
+          <t>2021-11-22T04:50:10.5430000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-12-11T04:58:53.9210000Z</t>
+          <t>2021-11-22T04:59:40.1660000Z</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>48507.28</v>
+        <v>57314</v>
       </c>
       <c r="G31" t="n">
-        <v>48632.9</v>
+        <v>57329.87</v>
       </c>
       <c r="H31" t="n">
-        <v>48490.43</v>
+        <v>57089.96</v>
       </c>
       <c r="I31" t="n">
-        <v>48611.6</v>
+        <v>57124.59</v>
       </c>
       <c r="J31" t="n">
-        <v>2.27420911</v>
+        <v>6.93393573</v>
       </c>
       <c r="K31" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1781,41 +1781,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-12-11T05:00:00.0000000Z</t>
+          <t>2021-11-22T05:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-12-11T05:10:00.0000000Z</t>
+          <t>2021-11-22T05:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-12-11T05:00:00.8470000Z</t>
+          <t>2021-11-22T05:00:03.4000000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021-12-11T05:09:08.9620000Z</t>
+          <t>2021-11-22T05:09:35.0340000Z</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>48603.09</v>
+        <v>57125.6</v>
       </c>
       <c r="G32" t="n">
-        <v>48618.88</v>
+        <v>57161.82</v>
       </c>
       <c r="H32" t="n">
-        <v>48526.87</v>
+        <v>56850</v>
       </c>
       <c r="I32" t="n">
-        <v>48542.19</v>
+        <v>56875.02</v>
       </c>
       <c r="J32" t="n">
-        <v>2.51306067</v>
+        <v>31.66977034</v>
       </c>
       <c r="K32" t="n">
-        <v>64</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
@@ -1824,41 +1824,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-12-11T05:10:00.0000000Z</t>
+          <t>2021-11-22T05:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-12-11T05:20:00.0000000Z</t>
+          <t>2021-11-22T05:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-12-11T05:10:25.0330000Z</t>
+          <t>2021-11-22T05:10:20.8130000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-12-11T05:19:58.4060000Z</t>
+          <t>2021-11-22T05:18:03.9300000Z</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>48520.39</v>
+        <v>56944.38</v>
       </c>
       <c r="G33" t="n">
-        <v>48534.65</v>
+        <v>57165.08</v>
       </c>
       <c r="H33" t="n">
-        <v>48443.67</v>
+        <v>56825</v>
       </c>
       <c r="I33" t="n">
-        <v>48446.77</v>
+        <v>57131.05</v>
       </c>
       <c r="J33" t="n">
-        <v>6.41984482</v>
+        <v>12.21884257</v>
       </c>
       <c r="K33" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1867,41 +1867,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-11T05:20:00.0000000Z</t>
+          <t>2021-11-22T05:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-12-11T05:30:00.0000000Z</t>
+          <t>2021-11-22T05:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-12-11T05:20:08.1630000Z</t>
+          <t>2021-11-22T05:20:06.0480000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-12-11T05:29:43.4120000Z</t>
+          <t>2021-11-22T05:29:33.4760000Z</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>48456.57</v>
+        <v>57190.28</v>
       </c>
       <c r="G34" t="n">
-        <v>48516.28</v>
+        <v>57257.08</v>
       </c>
       <c r="H34" t="n">
-        <v>48381.43</v>
+        <v>57108.23</v>
       </c>
       <c r="I34" t="n">
-        <v>48516.28</v>
+        <v>57121.42</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9867105800000001</v>
+        <v>9.84946053</v>
       </c>
       <c r="K34" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -1910,41 +1910,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-12-11T05:30:00.0000000Z</t>
+          <t>2021-11-22T05:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-12-11T05:40:00.0000000Z</t>
+          <t>2021-11-22T05:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-12-11T05:30:02.6200000Z</t>
+          <t>2021-11-22T05:30:17.9090000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021-12-11T05:39:53.1220000Z</t>
+          <t>2021-11-22T05:39:59.1640000Z</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>48508.38</v>
+        <v>57191.53</v>
       </c>
       <c r="G35" t="n">
-        <v>48559.89</v>
+        <v>57382.03</v>
       </c>
       <c r="H35" t="n">
-        <v>48483.47</v>
+        <v>57188.35</v>
       </c>
       <c r="I35" t="n">
-        <v>48530.02</v>
+        <v>57375.43</v>
       </c>
       <c r="J35" t="n">
-        <v>4.20644082</v>
+        <v>26.06415572</v>
       </c>
       <c r="K35" t="n">
-        <v>46</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36">
@@ -1953,41 +1953,41 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-12-11T05:40:00.0000000Z</t>
+          <t>2021-11-22T05:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-12-11T05:50:00.0000000Z</t>
+          <t>2021-11-22T05:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-12-11T05:40:12.9540000Z</t>
+          <t>2021-11-22T05:40:57.5390000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-12-11T05:49:59.0890000Z</t>
+          <t>2021-11-22T05:49:50.7470000Z</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>48516.28</v>
+        <v>57370.06</v>
       </c>
       <c r="G36" t="n">
-        <v>48609.1</v>
+        <v>57455</v>
       </c>
       <c r="H36" t="n">
-        <v>48516.28</v>
+        <v>57239.22</v>
       </c>
       <c r="I36" t="n">
-        <v>48592.89</v>
+        <v>57439.41</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3524209</v>
+        <v>5.47213084</v>
       </c>
       <c r="K36" t="n">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1996,41 +1996,41 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-12-11T05:50:00.0000000Z</t>
+          <t>2021-11-22T05:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-12-11T06:00:00.0000000Z</t>
+          <t>2021-11-22T06:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-12-11T05:50:15.8790000Z</t>
+          <t>2021-11-22T05:50:06.3190000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021-12-11T05:59:55.0940000Z</t>
+          <t>2021-11-22T05:59:58.9940000Z</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>48603.34</v>
+        <v>57446.14</v>
       </c>
       <c r="G37" t="n">
-        <v>48603.34</v>
+        <v>57503</v>
       </c>
       <c r="H37" t="n">
-        <v>48273.68</v>
+        <v>57383.85</v>
       </c>
       <c r="I37" t="n">
-        <v>48355.65</v>
+        <v>57502.68</v>
       </c>
       <c r="J37" t="n">
-        <v>6.05753063</v>
+        <v>8.84408079</v>
       </c>
       <c r="K37" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -2039,41 +2039,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-12-11T06:00:00.0000000Z</t>
+          <t>2021-11-22T06:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-12-11T06:10:00.0000000Z</t>
+          <t>2021-11-22T06:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-12-11T06:00:02.9220000Z</t>
+          <t>2021-11-22T06:00:15.3120000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021-12-11T06:09:59.3590000Z</t>
+          <t>2021-11-22T06:09:48.0500000Z</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>48358.06</v>
+        <v>57496.33</v>
       </c>
       <c r="G38" t="n">
-        <v>48437.06</v>
+        <v>57513.47</v>
       </c>
       <c r="H38" t="n">
-        <v>48253.79</v>
+        <v>57347.58</v>
       </c>
       <c r="I38" t="n">
-        <v>48421.26</v>
+        <v>57383.84</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82966093</v>
+        <v>10.11765838</v>
       </c>
       <c r="K38" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -2082,41 +2082,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-12-11T06:10:00.0000000Z</t>
+          <t>2021-11-22T06:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-12-11T06:20:00.0000000Z</t>
+          <t>2021-11-22T06:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-12-11T06:10:02.5690000Z</t>
+          <t>2021-11-22T06:10:06.0220000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021-12-11T06:19:39.0630000Z</t>
+          <t>2021-11-22T06:19:41.7540000Z</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>48421.26</v>
+        <v>57435.38</v>
       </c>
       <c r="G39" t="n">
-        <v>48901</v>
+        <v>57446.59</v>
       </c>
       <c r="H39" t="n">
-        <v>48421.26</v>
+        <v>57281.4</v>
       </c>
       <c r="I39" t="n">
-        <v>48615.45</v>
+        <v>57381.99</v>
       </c>
       <c r="J39" t="n">
-        <v>27.78678302</v>
+        <v>8.684829580000001</v>
       </c>
       <c r="K39" t="n">
-        <v>231</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -2125,41 +2125,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-12-11T06:20:00.0000000Z</t>
+          <t>2021-11-22T06:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-12-11T06:30:00.0000000Z</t>
+          <t>2021-11-22T06:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-12-11T06:20:01.8630000Z</t>
+          <t>2021-11-22T06:20:06.1670000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021-12-11T06:29:39.2710000Z</t>
+          <t>2021-11-22T06:29:51.3090000Z</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>48623.6</v>
+        <v>57355.25</v>
       </c>
       <c r="G40" t="n">
-        <v>48685.41</v>
+        <v>57387.98</v>
       </c>
       <c r="H40" t="n">
-        <v>48320</v>
+        <v>57239.21</v>
       </c>
       <c r="I40" t="n">
-        <v>48355.74</v>
+        <v>57286.14</v>
       </c>
       <c r="J40" t="n">
-        <v>3.23723323</v>
+        <v>15.04335498</v>
       </c>
       <c r="K40" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -2168,41 +2168,41 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-12-11T06:30:00.0000000Z</t>
+          <t>2021-11-22T06:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-12-11T06:40:00.0000000Z</t>
+          <t>2021-11-22T06:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-12-11T06:30:13.5160000Z</t>
+          <t>2021-11-22T06:30:01.9580000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021-12-11T06:39:49.8690000Z</t>
+          <t>2021-11-22T06:39:28.9100000Z</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>48353.96</v>
+        <v>57245.77</v>
       </c>
       <c r="G41" t="n">
-        <v>48359.65</v>
+        <v>57422.44</v>
       </c>
       <c r="H41" t="n">
-        <v>48200</v>
+        <v>57245.77</v>
       </c>
       <c r="I41" t="n">
-        <v>48353.94</v>
+        <v>57296.41</v>
       </c>
       <c r="J41" t="n">
-        <v>9.968142780000001</v>
+        <v>4.43557322</v>
       </c>
       <c r="K41" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -2211,41 +2211,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-12-11T06:40:00.0000000Z</t>
+          <t>2021-11-22T06:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-12-11T06:50:00.0000000Z</t>
+          <t>2021-11-22T06:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-12-11T06:40:02.6830000Z</t>
+          <t>2021-11-22T06:40:13.1230000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021-12-11T06:49:49.5040000Z</t>
+          <t>2021-11-22T06:49:53.6890000Z</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>48353.93</v>
+        <v>57295.02</v>
       </c>
       <c r="G42" t="n">
-        <v>48406.81</v>
+        <v>57357.54</v>
       </c>
       <c r="H42" t="n">
-        <v>48120.61</v>
+        <v>57122.78</v>
       </c>
       <c r="I42" t="n">
-        <v>48169.21</v>
+        <v>57196.89</v>
       </c>
       <c r="J42" t="n">
-        <v>13.68430201</v>
+        <v>9.90532745</v>
       </c>
       <c r="K42" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -2254,41 +2254,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-12-11T06:50:00.0000000Z</t>
+          <t>2021-11-22T06:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-12-11T07:00:00.0000000Z</t>
+          <t>2021-11-22T07:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021-12-11T06:50:07.1980000Z</t>
+          <t>2021-11-22T06:50:00.0780000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021-12-11T06:59:57.6160000Z</t>
+          <t>2021-11-22T06:58:40.2980000Z</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>48154.83</v>
+        <v>57190.41</v>
       </c>
       <c r="G43" t="n">
-        <v>48202.82</v>
+        <v>57390.68</v>
       </c>
       <c r="H43" t="n">
-        <v>48055.56</v>
+        <v>57190.41</v>
       </c>
       <c r="I43" t="n">
-        <v>48097.15</v>
+        <v>57343.84</v>
       </c>
       <c r="J43" t="n">
-        <v>8.8789429</v>
+        <v>3.09337678</v>
       </c>
       <c r="K43" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -2297,41 +2297,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-12-11T07:00:00.0000000Z</t>
+          <t>2021-11-22T07:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-12-11T07:10:00.0000000Z</t>
+          <t>2021-11-22T07:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-12-11T07:00:07.0000000Z</t>
+          <t>2021-11-22T07:00:01.4670000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021-12-11T07:09:59.8000000Z</t>
+          <t>2021-11-22T07:09:48.3490000Z</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>48061.22</v>
+        <v>57366.63</v>
       </c>
       <c r="G44" t="n">
-        <v>48136.52</v>
+        <v>57801</v>
       </c>
       <c r="H44" t="n">
-        <v>48018.53</v>
+        <v>57338.08</v>
       </c>
       <c r="I44" t="n">
-        <v>48093.24</v>
+        <v>57702.34</v>
       </c>
       <c r="J44" t="n">
-        <v>4.97211293</v>
+        <v>24.89071363</v>
       </c>
       <c r="K44" t="n">
-        <v>60</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45">
@@ -2340,41 +2340,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-12-11T07:10:00.0000000Z</t>
+          <t>2021-11-22T07:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-12-11T07:20:00.0000000Z</t>
+          <t>2021-11-22T07:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021-12-11T07:10:01.4350000Z</t>
+          <t>2021-11-22T07:10:14.1650000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021-12-11T07:19:42.3120000Z</t>
+          <t>2021-11-22T07:19:52.8780000Z</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>48095.5</v>
+        <v>57686.56</v>
       </c>
       <c r="G45" t="n">
-        <v>48162.41</v>
+        <v>57706.69</v>
       </c>
       <c r="H45" t="n">
-        <v>48068.02</v>
+        <v>57511.65</v>
       </c>
       <c r="I45" t="n">
-        <v>48093.65</v>
+        <v>57525.69</v>
       </c>
       <c r="J45" t="n">
-        <v>4.46273867</v>
+        <v>11.06583471</v>
       </c>
       <c r="K45" t="n">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
@@ -2383,41 +2383,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-12-11T07:20:00.0000000Z</t>
+          <t>2021-11-22T07:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-12-11T07:30:00.0000000Z</t>
+          <t>2021-11-22T07:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-12-11T07:20:05.6780000Z</t>
+          <t>2021-11-22T07:20:03.4970000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021-12-11T07:29:59.6790000Z</t>
+          <t>2021-11-22T07:29:38.9690000Z</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>48094.83</v>
+        <v>57566.81</v>
       </c>
       <c r="G46" t="n">
-        <v>48096.6</v>
+        <v>57632.13</v>
       </c>
       <c r="H46" t="n">
-        <v>48011.5</v>
+        <v>57487.68</v>
       </c>
       <c r="I46" t="n">
-        <v>48011.5</v>
+        <v>57615.96</v>
       </c>
       <c r="J46" t="n">
-        <v>2.06322745</v>
+        <v>10.92441422</v>
       </c>
       <c r="K46" t="n">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -2426,41 +2426,41 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-12-11T07:30:00.0000000Z</t>
+          <t>2021-11-22T07:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-12-11T07:40:00.0000000Z</t>
+          <t>2021-11-22T07:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-12-11T07:30:01.4070000Z</t>
+          <t>2021-11-22T07:30:06.9670000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021-12-11T07:39:36.2780000Z</t>
+          <t>2021-11-22T07:39:55.8160000Z</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>48001</v>
+        <v>57625.19</v>
       </c>
       <c r="G47" t="n">
-        <v>48079</v>
+        <v>57634.83</v>
       </c>
       <c r="H47" t="n">
-        <v>47819.2</v>
+        <v>57513.84</v>
       </c>
       <c r="I47" t="n">
-        <v>48079</v>
+        <v>57534.27</v>
       </c>
       <c r="J47" t="n">
-        <v>18.95567507</v>
+        <v>6.40781713</v>
       </c>
       <c r="K47" t="n">
-        <v>142</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -2469,41 +2469,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-12-11T07:40:00.0000000Z</t>
+          <t>2021-11-22T07:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-12-11T07:50:00.0000000Z</t>
+          <t>2021-11-22T07:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021-12-11T07:40:26.1620000Z</t>
+          <t>2021-11-22T07:40:07.1670000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021-12-11T07:49:52.6230000Z</t>
+          <t>2021-11-22T07:49:52.6770000Z</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>48098.84</v>
+        <v>57547.62</v>
       </c>
       <c r="G48" t="n">
-        <v>48194.01</v>
+        <v>57547.62</v>
       </c>
       <c r="H48" t="n">
-        <v>48026.43</v>
+        <v>57439.96</v>
       </c>
       <c r="I48" t="n">
-        <v>48144.05</v>
+        <v>57497.36</v>
       </c>
       <c r="J48" t="n">
-        <v>10.16307989</v>
+        <v>2.52818115</v>
       </c>
       <c r="K48" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
@@ -2512,41 +2512,41 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-12-11T07:50:00.0000000Z</t>
+          <t>2021-11-22T07:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-12-11T08:00:00.0000000Z</t>
+          <t>2021-11-22T08:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021-12-11T07:50:06.8920000Z</t>
+          <t>2021-11-22T07:50:02.3850000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021-12-11T07:59:55.1240000Z</t>
+          <t>2021-11-22T07:59:56.9420000Z</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>48103.62</v>
+        <v>57478.91</v>
       </c>
       <c r="G49" t="n">
-        <v>48192.78</v>
+        <v>57505.56</v>
       </c>
       <c r="H49" t="n">
-        <v>48040.5</v>
+        <v>57311.69</v>
       </c>
       <c r="I49" t="n">
-        <v>48079.1</v>
+        <v>57311.69</v>
       </c>
       <c r="J49" t="n">
-        <v>2.9699117</v>
+        <v>11.46985174</v>
       </c>
       <c r="K49" t="n">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50">
@@ -2555,41 +2555,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-12-11T08:00:00.0000000Z</t>
+          <t>2021-11-22T08:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-12-11T08:10:00.0000000Z</t>
+          <t>2021-11-22T08:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-12-11T08:00:03.4240000Z</t>
+          <t>2021-11-22T08:00:00.3150000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021-12-11T08:09:39.9340000Z</t>
+          <t>2021-11-22T08:09:54.1550000Z</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>48063.33</v>
+        <v>57319.67</v>
       </c>
       <c r="G50" t="n">
-        <v>48132.21</v>
+        <v>57444.67</v>
       </c>
       <c r="H50" t="n">
-        <v>47903.5</v>
+        <v>57296</v>
       </c>
       <c r="I50" t="n">
-        <v>47903.58</v>
+        <v>57415.45</v>
       </c>
       <c r="J50" t="n">
-        <v>10.01301193</v>
+        <v>4.57344487</v>
       </c>
       <c r="K50" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
@@ -2598,41 +2598,41 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021-12-11T08:10:00.0000000Z</t>
+          <t>2021-11-22T08:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-12-11T08:20:00.0000000Z</t>
+          <t>2021-11-22T08:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021-12-11T08:10:01.6540000Z</t>
+          <t>2021-11-22T08:10:13.6880000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021-12-11T08:19:58.5320000Z</t>
+          <t>2021-11-22T08:19:24.6160000Z</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>47930.06</v>
+        <v>57416.04</v>
       </c>
       <c r="G51" t="n">
-        <v>48260.83</v>
+        <v>57481.74</v>
       </c>
       <c r="H51" t="n">
-        <v>47930.06</v>
+        <v>57370.77</v>
       </c>
       <c r="I51" t="n">
-        <v>48260.83</v>
+        <v>57419.07</v>
       </c>
       <c r="J51" t="n">
-        <v>2.66823674</v>
+        <v>4.94358181</v>
       </c>
       <c r="K51" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -2641,41 +2641,41 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021-12-11T08:20:00.0000000Z</t>
+          <t>2021-11-22T08:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-12-11T08:30:00.0000000Z</t>
+          <t>2021-11-22T08:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021-12-11T08:20:03.1650000Z</t>
+          <t>2021-11-22T08:20:01.0860000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021-12-11T08:29:59.3770000Z</t>
+          <t>2021-11-22T08:29:53.0420000Z</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>48258.91</v>
+        <v>57419.52</v>
       </c>
       <c r="G52" t="n">
-        <v>48858.06</v>
+        <v>57553.91</v>
       </c>
       <c r="H52" t="n">
-        <v>48232.37</v>
+        <v>57360</v>
       </c>
       <c r="I52" t="n">
-        <v>48838.5</v>
+        <v>57553.91</v>
       </c>
       <c r="J52" t="n">
-        <v>38.38577361</v>
+        <v>4.62762259</v>
       </c>
       <c r="K52" t="n">
-        <v>301</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53">
@@ -2684,41 +2684,41 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021-12-11T08:30:00.0000000Z</t>
+          <t>2021-11-22T08:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-12-11T08:40:00.0000000Z</t>
+          <t>2021-11-22T08:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-12-11T08:30:00.4050000Z</t>
+          <t>2021-11-22T08:30:08.6210000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021-12-11T08:39:57.7240000Z</t>
+          <t>2021-11-22T08:39:31.3970000Z</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>48861.26</v>
+        <v>57549.62</v>
       </c>
       <c r="G53" t="n">
-        <v>48948.83</v>
+        <v>57637.84</v>
       </c>
       <c r="H53" t="n">
-        <v>48489.09</v>
+        <v>57495.35</v>
       </c>
       <c r="I53" t="n">
-        <v>48489.09</v>
+        <v>57609.16</v>
       </c>
       <c r="J53" t="n">
-        <v>23.26886675</v>
+        <v>2.4438478</v>
       </c>
       <c r="K53" t="n">
-        <v>214</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -2727,41 +2727,41 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-12-11T08:40:00.0000000Z</t>
+          <t>2021-11-22T08:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021-12-11T08:50:00.0000000Z</t>
+          <t>2021-11-22T08:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021-12-11T08:40:05.9330000Z</t>
+          <t>2021-11-22T08:40:05.1660000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021-12-11T08:49:57.8780000Z</t>
+          <t>2021-11-22T08:49:59.7930000Z</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>48520.24</v>
+        <v>57600.35</v>
       </c>
       <c r="G54" t="n">
-        <v>48548.09</v>
+        <v>57624.23</v>
       </c>
       <c r="H54" t="n">
-        <v>48355.85</v>
+        <v>57400.49</v>
       </c>
       <c r="I54" t="n">
-        <v>48467.27</v>
+        <v>57400.49</v>
       </c>
       <c r="J54" t="n">
-        <v>6.62791013</v>
+        <v>5.33897602</v>
       </c>
       <c r="K54" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -2770,41 +2770,41 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-12-11T08:50:00.0000000Z</t>
+          <t>2021-11-22T08:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021-12-11T09:00:00.0000000Z</t>
+          <t>2021-11-22T09:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021-12-11T08:50:22.8410000Z</t>
+          <t>2021-11-22T08:50:00.9230000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2021-12-11T08:59:56.6960000Z</t>
+          <t>2021-11-22T08:59:58.9610000Z</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>48461.64</v>
+        <v>57404.32</v>
       </c>
       <c r="G55" t="n">
-        <v>48515.97</v>
+        <v>57521.47</v>
       </c>
       <c r="H55" t="n">
-        <v>48307.34</v>
+        <v>57371.93</v>
       </c>
       <c r="I55" t="n">
-        <v>48413.55</v>
+        <v>57413.12</v>
       </c>
       <c r="J55" t="n">
-        <v>11.62249665</v>
+        <v>16.79379547</v>
       </c>
       <c r="K55" t="n">
-        <v>101</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56">
@@ -2813,41 +2813,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021-12-11T09:00:00.0000000Z</t>
+          <t>2021-11-22T09:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021-12-11T09:10:00.0000000Z</t>
+          <t>2021-11-22T09:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021-12-11T09:00:13.5180000Z</t>
+          <t>2021-11-22T09:00:00.5640000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2021-12-11T09:09:57.9120000Z</t>
+          <t>2021-11-22T09:09:59.6910000Z</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>48431.22</v>
+        <v>57409.6</v>
       </c>
       <c r="G56" t="n">
-        <v>48443.77</v>
+        <v>57717.03</v>
       </c>
       <c r="H56" t="n">
-        <v>48176.14</v>
+        <v>57409.6</v>
       </c>
       <c r="I56" t="n">
-        <v>48289.32</v>
+        <v>57717.03</v>
       </c>
       <c r="J56" t="n">
-        <v>17.07618775</v>
+        <v>8.096312559999999</v>
       </c>
       <c r="K56" t="n">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
@@ -2856,41 +2856,41 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021-12-11T09:10:00.0000000Z</t>
+          <t>2021-11-22T09:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021-12-11T09:20:00.0000000Z</t>
+          <t>2021-11-22T09:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021-12-11T09:10:07.5640000Z</t>
+          <t>2021-11-22T09:10:17.3740000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2021-12-11T09:19:47.6410000Z</t>
+          <t>2021-11-22T09:19:50.6400000Z</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>48294.86</v>
+        <v>57697.78</v>
       </c>
       <c r="G57" t="n">
-        <v>48329.64</v>
+        <v>57897.54</v>
       </c>
       <c r="H57" t="n">
-        <v>48203.22</v>
+        <v>57665.33</v>
       </c>
       <c r="I57" t="n">
-        <v>48325.82</v>
+        <v>57714.16</v>
       </c>
       <c r="J57" t="n">
-        <v>1.6046329</v>
+        <v>12.18884263</v>
       </c>
       <c r="K57" t="n">
-        <v>55</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -2899,41 +2899,41 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021-12-11T09:20:00.0000000Z</t>
+          <t>2021-11-22T09:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2021-12-11T09:30:00.0000000Z</t>
+          <t>2021-11-22T09:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2021-12-11T09:20:36.3740000Z</t>
+          <t>2021-11-22T09:20:18.6890000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2021-12-11T09:29:24.6120000Z</t>
+          <t>2021-11-22T09:29:43.9430000Z</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>48359.55</v>
+        <v>57714.16</v>
       </c>
       <c r="G58" t="n">
-        <v>48472.57</v>
+        <v>57714.16</v>
       </c>
       <c r="H58" t="n">
-        <v>48354.35</v>
+        <v>57507.74</v>
       </c>
       <c r="I58" t="n">
-        <v>48397.56</v>
+        <v>57577.04</v>
       </c>
       <c r="J58" t="n">
-        <v>2.96854614</v>
+        <v>10.58330445</v>
       </c>
       <c r="K58" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -2942,41 +2942,41 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021-12-11T09:30:00.0000000Z</t>
+          <t>2021-11-22T09:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021-12-11T09:40:00.0000000Z</t>
+          <t>2021-11-22T09:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2021-12-11T09:30:20.9600000Z</t>
+          <t>2021-11-22T09:30:00.1240000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2021-12-11T09:39:31.1080000Z</t>
+          <t>2021-11-22T09:39:57.8980000Z</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>48425.96</v>
+        <v>57577.05</v>
       </c>
       <c r="G59" t="n">
-        <v>48535.94</v>
+        <v>57653.97</v>
       </c>
       <c r="H59" t="n">
-        <v>48425.96</v>
+        <v>57405.37</v>
       </c>
       <c r="I59" t="n">
-        <v>48460.85</v>
+        <v>57421.57</v>
       </c>
       <c r="J59" t="n">
-        <v>3.83120178</v>
+        <v>6.24665303</v>
       </c>
       <c r="K59" t="n">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60">
@@ -2985,41 +2985,41 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021-12-11T09:40:00.0000000Z</t>
+          <t>2021-11-22T09:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2021-12-11T09:50:00.0000000Z</t>
+          <t>2021-11-22T09:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021-12-11T09:40:44.6310000Z</t>
+          <t>2021-11-22T09:40:00.9560000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2021-12-11T09:49:34.2400000Z</t>
+          <t>2021-11-22T09:49:58.7300000Z</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>48458.48</v>
+        <v>57421.02</v>
       </c>
       <c r="G60" t="n">
-        <v>48518.94</v>
+        <v>57504.33</v>
       </c>
       <c r="H60" t="n">
-        <v>48366.56</v>
+        <v>57404.01</v>
       </c>
       <c r="I60" t="n">
-        <v>48444.43</v>
+        <v>57448.62</v>
       </c>
       <c r="J60" t="n">
-        <v>6.28192052</v>
+        <v>19.29607083</v>
       </c>
       <c r="K60" t="n">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61">
@@ -3028,41 +3028,41 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021-12-11T09:50:00.0000000Z</t>
+          <t>2021-11-22T09:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021-12-11T10:00:00.0000000Z</t>
+          <t>2021-11-22T10:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2021-12-11T09:50:08.3720000Z</t>
+          <t>2021-11-22T09:50:12.0950000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2021-12-11T09:59:59.8080000Z</t>
+          <t>2021-11-22T09:59:59.6970000Z</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>48443.31</v>
+        <v>57437.29</v>
       </c>
       <c r="G61" t="n">
-        <v>48657.74</v>
+        <v>57498.66</v>
       </c>
       <c r="H61" t="n">
-        <v>48395.04</v>
+        <v>57194.14</v>
       </c>
       <c r="I61" t="n">
-        <v>48577.43</v>
+        <v>57204.97</v>
       </c>
       <c r="J61" t="n">
-        <v>4.19262956</v>
+        <v>14.30624001</v>
       </c>
       <c r="K61" t="n">
-        <v>63</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62">
@@ -3071,41 +3071,41 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021-12-11T10:00:00.0000000Z</t>
+          <t>2021-11-22T10:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021-12-11T10:10:00.0000000Z</t>
+          <t>2021-11-22T10:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021-12-11T10:00:12.9620000Z</t>
+          <t>2021-11-22T10:00:01.2690000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2021-12-11T10:09:30.1960000Z</t>
+          <t>2021-11-22T10:09:39.6220000Z</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>48549.1</v>
+        <v>57204.97</v>
       </c>
       <c r="G62" t="n">
-        <v>48630.69</v>
+        <v>57304.26</v>
       </c>
       <c r="H62" t="n">
-        <v>48518.19</v>
+        <v>57040</v>
       </c>
       <c r="I62" t="n">
-        <v>48577.76</v>
+        <v>57161.55</v>
       </c>
       <c r="J62" t="n">
-        <v>4.01306828</v>
+        <v>18.91943346</v>
       </c>
       <c r="K62" t="n">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63">
@@ -3114,41 +3114,41 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021-12-11T10:10:00.0000000Z</t>
+          <t>2021-11-22T10:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2021-12-11T10:20:00.0000000Z</t>
+          <t>2021-11-22T10:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021-12-11T10:10:17.2420000Z</t>
+          <t>2021-11-22T10:10:06.6410000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2021-12-11T10:19:55.8670000Z</t>
+          <t>2021-11-22T10:19:45.6650000Z</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>48550.91</v>
+        <v>57170.36</v>
       </c>
       <c r="G63" t="n">
-        <v>48589.54</v>
+        <v>57437.53</v>
       </c>
       <c r="H63" t="n">
-        <v>48368.42</v>
+        <v>57161.56</v>
       </c>
       <c r="I63" t="n">
-        <v>48402.34</v>
+        <v>57348.57</v>
       </c>
       <c r="J63" t="n">
-        <v>3.44889581</v>
+        <v>16.71527293</v>
       </c>
       <c r="K63" t="n">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64">
@@ -3157,41 +3157,41 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021-12-11T10:20:00.0000000Z</t>
+          <t>2021-11-22T10:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2021-12-11T10:30:00.0000000Z</t>
+          <t>2021-11-22T10:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-12-11T10:20:12.3720000Z</t>
+          <t>2021-11-22T10:20:04.4300000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2021-12-11T10:29:34.2370000Z</t>
+          <t>2021-11-22T10:29:44.8670000Z</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>48422</v>
+        <v>57325.5</v>
       </c>
       <c r="G64" t="n">
-        <v>48494.62</v>
+        <v>57447.43</v>
       </c>
       <c r="H64" t="n">
-        <v>48417.94</v>
+        <v>57310.18</v>
       </c>
       <c r="I64" t="n">
-        <v>48462.74</v>
+        <v>57350</v>
       </c>
       <c r="J64" t="n">
-        <v>1.73476661</v>
+        <v>10.08306463</v>
       </c>
       <c r="K64" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -3200,41 +3200,41 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021-12-11T10:30:00.0000000Z</t>
+          <t>2021-11-22T10:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2021-12-11T10:40:00.0000000Z</t>
+          <t>2021-11-22T10:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2021-12-11T10:30:01.8340000Z</t>
+          <t>2021-11-22T10:30:11.7980000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2021-12-11T10:39:48.9090000Z</t>
+          <t>2021-11-22T10:39:48.0700000Z</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>48470.48</v>
+        <v>57356.69</v>
       </c>
       <c r="G65" t="n">
-        <v>48546.48</v>
+        <v>57416.86</v>
       </c>
       <c r="H65" t="n">
-        <v>48431.03</v>
+        <v>57271.3</v>
       </c>
       <c r="I65" t="n">
-        <v>48472.63</v>
+        <v>57307.44</v>
       </c>
       <c r="J65" t="n">
-        <v>4.16496485</v>
+        <v>2.1991919</v>
       </c>
       <c r="K65" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
@@ -3243,41 +3243,41 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021-12-11T10:40:00.0000000Z</t>
+          <t>2021-11-22T10:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021-12-11T10:50:00.0000000Z</t>
+          <t>2021-11-22T10:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2021-12-11T10:40:02.4830000Z</t>
+          <t>2021-11-22T10:40:19.5780000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2021-12-11T10:49:48.8130000Z</t>
+          <t>2021-11-22T10:49:56.9030000Z</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>48472.63</v>
+        <v>57269.4</v>
       </c>
       <c r="G66" t="n">
-        <v>48536.76</v>
+        <v>57363.32</v>
       </c>
       <c r="H66" t="n">
-        <v>48424.43</v>
+        <v>57235.56</v>
       </c>
       <c r="I66" t="n">
-        <v>48481.47</v>
+        <v>57269.75</v>
       </c>
       <c r="J66" t="n">
-        <v>4.31735283</v>
+        <v>9.804756709999999</v>
       </c>
       <c r="K66" t="n">
-        <v>61</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
@@ -3286,41 +3286,41 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021-12-11T10:50:00.0000000Z</t>
+          <t>2021-11-22T10:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2021-12-11T11:00:00.0000000Z</t>
+          <t>2021-11-22T11:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2021-12-11T10:50:04.9780000Z</t>
+          <t>2021-11-22T10:50:01.5660000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2021-12-11T10:59:53.4740000Z</t>
+          <t>2021-11-22T10:59:41.5380000Z</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>48469.37</v>
+        <v>57269.75</v>
       </c>
       <c r="G67" t="n">
-        <v>48550.03</v>
+        <v>57388.73</v>
       </c>
       <c r="H67" t="n">
-        <v>48394.14</v>
+        <v>57184.11</v>
       </c>
       <c r="I67" t="n">
-        <v>48418.28</v>
+        <v>57386.29</v>
       </c>
       <c r="J67" t="n">
-        <v>4.05522182</v>
+        <v>9.28402865</v>
       </c>
       <c r="K67" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
@@ -3329,41 +3329,41 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021-12-11T11:00:00.0000000Z</t>
+          <t>2021-11-22T11:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2021-12-11T11:10:00.0000000Z</t>
+          <t>2021-11-22T11:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2021-12-11T11:00:06.4920000Z</t>
+          <t>2021-11-22T11:00:00.4030000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2021-12-11T11:09:35.8430000Z</t>
+          <t>2021-11-22T11:09:48.9230000Z</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>48426.29</v>
+        <v>57400.94</v>
       </c>
       <c r="G68" t="n">
-        <v>48459.66</v>
+        <v>57511.29</v>
       </c>
       <c r="H68" t="n">
-        <v>48320</v>
+        <v>57319.73</v>
       </c>
       <c r="I68" t="n">
-        <v>48459.66</v>
+        <v>57511.29</v>
       </c>
       <c r="J68" t="n">
-        <v>7.12567212</v>
+        <v>14.68949735</v>
       </c>
       <c r="K68" t="n">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69">
@@ -3372,41 +3372,41 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021-12-11T11:10:00.0000000Z</t>
+          <t>2021-11-22T11:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2021-12-11T11:20:00.0000000Z</t>
+          <t>2021-11-22T11:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2021-12-11T11:10:01.2160000Z</t>
+          <t>2021-11-22T11:10:02.5780000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2021-12-11T11:19:58.8730000Z</t>
+          <t>2021-11-22T11:19:52.8020000Z</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>48447.66</v>
+        <v>57511.24</v>
       </c>
       <c r="G69" t="n">
-        <v>48485.48</v>
+        <v>57590.81</v>
       </c>
       <c r="H69" t="n">
-        <v>48356.13</v>
+        <v>57464.98</v>
       </c>
       <c r="I69" t="n">
-        <v>48358.59</v>
+        <v>57541.24</v>
       </c>
       <c r="J69" t="n">
-        <v>2.72765055</v>
+        <v>7.22501883</v>
       </c>
       <c r="K69" t="n">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70">
@@ -3415,41 +3415,41 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021-12-11T11:20:00.0000000Z</t>
+          <t>2021-11-22T11:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2021-12-11T11:30:00.0000000Z</t>
+          <t>2021-11-22T11:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2021-12-11T11:20:12.6880000Z</t>
+          <t>2021-11-22T11:20:04.3490000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2021-12-11T11:29:11.6240000Z</t>
+          <t>2021-11-22T11:29:56.2420000Z</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>48350.38</v>
+        <v>57573.6</v>
       </c>
       <c r="G70" t="n">
-        <v>48381.35</v>
+        <v>57573.6</v>
       </c>
       <c r="H70" t="n">
-        <v>48198.43</v>
+        <v>57433.97</v>
       </c>
       <c r="I70" t="n">
-        <v>48255.16</v>
+        <v>57494.89</v>
       </c>
       <c r="J70" t="n">
-        <v>1.51370668</v>
+        <v>3.77621557</v>
       </c>
       <c r="K70" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
@@ -3458,41 +3458,41 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021-12-11T11:30:00.0000000Z</t>
+          <t>2021-11-22T11:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2021-12-11T11:40:00.0000000Z</t>
+          <t>2021-11-22T11:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2021-12-11T11:30:03.6620000Z</t>
+          <t>2021-11-22T11:30:04.5910000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2021-12-11T11:39:35.5750000Z</t>
+          <t>2021-11-22T11:39:59.4660000Z</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>48272.38</v>
+        <v>57511.32</v>
       </c>
       <c r="G71" t="n">
-        <v>48318.01</v>
+        <v>57521.87</v>
       </c>
       <c r="H71" t="n">
-        <v>48218.67</v>
+        <v>57377.58</v>
       </c>
       <c r="I71" t="n">
-        <v>48296.49</v>
+        <v>57491.43</v>
       </c>
       <c r="J71" t="n">
-        <v>0.52922775</v>
+        <v>2.52458983</v>
       </c>
       <c r="K71" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -3501,41 +3501,41 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021-12-11T11:40:00.0000000Z</t>
+          <t>2021-11-22T11:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2021-12-11T11:50:00.0000000Z</t>
+          <t>2021-11-22T11:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2021-12-11T11:40:13.3400000Z</t>
+          <t>2021-11-22T11:40:06.0960000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021-12-11T11:49:51.9770000Z</t>
+          <t>2021-11-22T11:49:18.6270000Z</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>48323.5</v>
+        <v>57491.43</v>
       </c>
       <c r="G72" t="n">
-        <v>48351.34</v>
+        <v>57569.36</v>
       </c>
       <c r="H72" t="n">
-        <v>48276.4</v>
+        <v>57476.26</v>
       </c>
       <c r="I72" t="n">
-        <v>48287.64</v>
+        <v>57566.03</v>
       </c>
       <c r="J72" t="n">
-        <v>1.87737329</v>
+        <v>5.78562091</v>
       </c>
       <c r="K72" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73">
@@ -3544,41 +3544,41 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021-12-11T11:50:00.0000000Z</t>
+          <t>2021-11-22T11:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2021-12-11T12:00:00.0000000Z</t>
+          <t>2021-11-22T12:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2021-12-11T11:50:13.0640000Z</t>
+          <t>2021-11-22T11:50:17.5840000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2021-12-11T11:59:56.8250000Z</t>
+          <t>2021-11-22T11:59:49.5570000Z</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>48291.37</v>
+        <v>57507.75</v>
       </c>
       <c r="G73" t="n">
-        <v>48316.65</v>
+        <v>57507.75</v>
       </c>
       <c r="H73" t="n">
-        <v>48221.03</v>
+        <v>57222.72</v>
       </c>
       <c r="I73" t="n">
-        <v>48248.43</v>
+        <v>57222.72</v>
       </c>
       <c r="J73" t="n">
-        <v>1.53422733</v>
+        <v>7.30175827</v>
       </c>
       <c r="K73" t="n">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -3587,41 +3587,41 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021-12-11T12:00:00.0000000Z</t>
+          <t>2021-11-22T12:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2021-12-11T12:10:00.0000000Z</t>
+          <t>2021-11-22T12:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2021-12-11T12:00:03.7510000Z</t>
+          <t>2021-11-22T12:00:25.5820000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2021-12-11T12:09:43.3740000Z</t>
+          <t>2021-11-22T12:09:59.9140000Z</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>48290.91</v>
+        <v>57239.93</v>
       </c>
       <c r="G74" t="n">
-        <v>48360.3</v>
+        <v>57358.26</v>
       </c>
       <c r="H74" t="n">
-        <v>48230</v>
+        <v>57221.73</v>
       </c>
       <c r="I74" t="n">
-        <v>48336.72</v>
+        <v>57263.86</v>
       </c>
       <c r="J74" t="n">
-        <v>0.48512264</v>
+        <v>4.94481192</v>
       </c>
       <c r="K74" t="n">
-        <v>26</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
@@ -3630,41 +3630,41 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021-12-11T12:10:00.0000000Z</t>
+          <t>2021-11-22T12:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2021-12-11T12:20:00.0000000Z</t>
+          <t>2021-11-22T12:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2021-12-11T12:10:12.3970000Z</t>
+          <t>2021-11-22T12:10:02.4290000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2021-12-11T12:19:52.5690000Z</t>
+          <t>2021-11-22T12:19:57.7280000Z</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>48392.86</v>
+        <v>57267.07</v>
       </c>
       <c r="G75" t="n">
-        <v>48459.97</v>
+        <v>57337.67</v>
       </c>
       <c r="H75" t="n">
-        <v>48350</v>
+        <v>57115.38</v>
       </c>
       <c r="I75" t="n">
-        <v>48459.97</v>
+        <v>57284.2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.32640121</v>
+        <v>9.53559939</v>
       </c>
       <c r="K75" t="n">
-        <v>64</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76">
@@ -3673,41 +3673,41 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021-12-11T12:20:00.0000000Z</t>
+          <t>2021-11-22T12:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2021-12-11T12:30:00.0000000Z</t>
+          <t>2021-11-22T12:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2021-12-11T12:20:08.7020000Z</t>
+          <t>2021-11-22T12:20:25.0070000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2021-12-11T12:29:38.5260000Z</t>
+          <t>2021-11-22T12:29:53.5810000Z</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>48454.77</v>
+        <v>57309</v>
       </c>
       <c r="G76" t="n">
-        <v>48599</v>
+        <v>57724.11</v>
       </c>
       <c r="H76" t="n">
-        <v>48454.77</v>
+        <v>57233.21</v>
       </c>
       <c r="I76" t="n">
-        <v>48533.78</v>
+        <v>57724.11</v>
       </c>
       <c r="J76" t="n">
-        <v>2.74285551</v>
+        <v>7.33743414</v>
       </c>
       <c r="K76" t="n">
-        <v>65</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
@@ -3716,41 +3716,41 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021-12-11T12:30:00.0000000Z</t>
+          <t>2021-11-22T12:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2021-12-11T12:40:00.0000000Z</t>
+          <t>2021-11-22T12:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2021-12-11T12:30:08.1860000Z</t>
+          <t>2021-11-22T12:30:10.1930000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2021-12-11T12:39:56.8820000Z</t>
+          <t>2021-11-22T12:39:56.7170000Z</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>48553.33</v>
+        <v>57685.08</v>
       </c>
       <c r="G77" t="n">
-        <v>48553.33</v>
+        <v>58079</v>
       </c>
       <c r="H77" t="n">
-        <v>48479.47</v>
+        <v>57451.69</v>
       </c>
       <c r="I77" t="n">
-        <v>48512.91</v>
+        <v>57501.64</v>
       </c>
       <c r="J77" t="n">
-        <v>5.74900113</v>
+        <v>30.43364818</v>
       </c>
       <c r="K77" t="n">
-        <v>44</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78">
@@ -3759,41 +3759,41 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021-12-11T12:40:00.0000000Z</t>
+          <t>2021-11-22T12:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2021-12-11T12:50:00.0000000Z</t>
+          <t>2021-11-22T12:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2021-12-11T12:40:00.0820000Z</t>
+          <t>2021-11-22T12:40:02.1230000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2021-12-11T12:49:50.0600000Z</t>
+          <t>2021-11-22T12:49:55.9550000Z</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>48504.94</v>
+        <v>57476.88</v>
       </c>
       <c r="G78" t="n">
-        <v>48598.59</v>
+        <v>57587.16</v>
       </c>
       <c r="H78" t="n">
-        <v>48491.76</v>
+        <v>57224</v>
       </c>
       <c r="I78" t="n">
-        <v>48503.81</v>
+        <v>57224</v>
       </c>
       <c r="J78" t="n">
-        <v>2.7245955</v>
+        <v>21.34566667</v>
       </c>
       <c r="K78" t="n">
-        <v>65</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
@@ -3802,41 +3802,41 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021-12-11T12:50:00.0000000Z</t>
+          <t>2021-11-22T12:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2021-12-11T13:00:00.0000000Z</t>
+          <t>2021-11-22T13:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2021-12-11T12:50:05.5730000Z</t>
+          <t>2021-11-22T12:50:00.0890000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2021-12-11T12:59:48.5200000Z</t>
+          <t>2021-11-22T12:59:43.0550000Z</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>48506</v>
+        <v>57250.36</v>
       </c>
       <c r="G79" t="n">
-        <v>48584.03</v>
+        <v>57377.77</v>
       </c>
       <c r="H79" t="n">
-        <v>48506</v>
+        <v>57207.33</v>
       </c>
       <c r="I79" t="n">
-        <v>48572.16</v>
+        <v>57229.99</v>
       </c>
       <c r="J79" t="n">
-        <v>6.74237703</v>
+        <v>6.31731698</v>
       </c>
       <c r="K79" t="n">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -3845,41 +3845,41 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021-12-11T13:00:00.0000000Z</t>
+          <t>2021-11-22T13:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2021-12-11T13:10:00.0000000Z</t>
+          <t>2021-11-22T13:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2021-12-11T13:00:25.3780000Z</t>
+          <t>2021-11-22T13:00:02.4890000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2021-12-11T13:09:40.2270000Z</t>
+          <t>2021-11-22T13:09:52.2760000Z</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>48586.72</v>
+        <v>57213.1</v>
       </c>
       <c r="G80" t="n">
-        <v>48598.46</v>
+        <v>57269.4</v>
       </c>
       <c r="H80" t="n">
-        <v>48406.92</v>
+        <v>57065.92</v>
       </c>
       <c r="I80" t="n">
-        <v>48503.05</v>
+        <v>57097.34</v>
       </c>
       <c r="J80" t="n">
-        <v>1.52653351</v>
+        <v>25.53116462</v>
       </c>
       <c r="K80" t="n">
-        <v>57</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81">
@@ -3888,41 +3888,41 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021-12-11T13:10:00.0000000Z</t>
+          <t>2021-11-22T13:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2021-12-11T13:20:00.0000000Z</t>
+          <t>2021-11-22T13:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2021-12-11T13:10:09.5010000Z</t>
+          <t>2021-11-22T13:10:02.4010000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2021-12-11T13:19:51.3300000Z</t>
+          <t>2021-11-22T13:19:58.8720000Z</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>48503.05</v>
+        <v>57077.43</v>
       </c>
       <c r="G81" t="n">
-        <v>48946.34</v>
+        <v>57179.58</v>
       </c>
       <c r="H81" t="n">
-        <v>48269.6</v>
+        <v>56665</v>
       </c>
       <c r="I81" t="n">
-        <v>48444.47</v>
+        <v>56683.19</v>
       </c>
       <c r="J81" t="n">
-        <v>50.22423653</v>
+        <v>44.53246675</v>
       </c>
       <c r="K81" t="n">
-        <v>260</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82">
@@ -3931,41 +3931,41 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021-12-11T13:20:00.0000000Z</t>
+          <t>2021-11-22T13:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2021-12-11T13:30:00.0000000Z</t>
+          <t>2021-11-22T13:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2021-12-11T13:20:17.2320000Z</t>
+          <t>2021-11-22T13:20:02.8590000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2021-12-11T13:28:26.7350000Z</t>
+          <t>2021-11-22T13:29:57.6020000Z</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>48475.54</v>
+        <v>56661.1</v>
       </c>
       <c r="G82" t="n">
-        <v>48563.59</v>
+        <v>57274.63</v>
       </c>
       <c r="H82" t="n">
-        <v>48441.69</v>
+        <v>56640.21</v>
       </c>
       <c r="I82" t="n">
-        <v>48471.07</v>
+        <v>57274.63</v>
       </c>
       <c r="J82" t="n">
-        <v>1.12415881</v>
+        <v>19.6884584</v>
       </c>
       <c r="K82" t="n">
-        <v>46</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83">
@@ -3974,41 +3974,41 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021-12-11T13:30:00.0000000Z</t>
+          <t>2021-11-22T13:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2021-12-11T13:40:00.0000000Z</t>
+          <t>2021-11-22T13:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2021-12-11T13:30:45.8430000Z</t>
+          <t>2021-11-22T13:30:13.0760000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2021-12-11T13:39:55.2420000Z</t>
+          <t>2021-11-22T13:39:53.2720000Z</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>48514.38</v>
+        <v>57247.1</v>
       </c>
       <c r="G83" t="n">
-        <v>48625.2</v>
+        <v>59516.78</v>
       </c>
       <c r="H83" t="n">
-        <v>48489.1</v>
+        <v>57197.3</v>
       </c>
       <c r="I83" t="n">
-        <v>48564.09</v>
+        <v>58968.06</v>
       </c>
       <c r="J83" t="n">
-        <v>5.46271277</v>
+        <v>236.40859284</v>
       </c>
       <c r="K83" t="n">
-        <v>64</v>
+        <v>976</v>
       </c>
     </row>
     <row r="84">
@@ -4017,41 +4017,41 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021-12-11T13:40:00.0000000Z</t>
+          <t>2021-11-22T13:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2021-12-11T13:50:00.0000000Z</t>
+          <t>2021-11-22T13:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2021-12-11T13:40:18.2850000Z</t>
+          <t>2021-11-22T13:40:01.4130000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2021-12-11T13:49:58.0740000Z</t>
+          <t>2021-11-22T13:49:46.6860000Z</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>48535.65</v>
+        <v>59025</v>
       </c>
       <c r="G84" t="n">
-        <v>48548.78</v>
+        <v>59303.03</v>
       </c>
       <c r="H84" t="n">
-        <v>48307.34</v>
+        <v>58697.5</v>
       </c>
       <c r="I84" t="n">
-        <v>48322.94</v>
+        <v>58697.5</v>
       </c>
       <c r="J84" t="n">
-        <v>2.14143697</v>
+        <v>35.04139689</v>
       </c>
       <c r="K84" t="n">
-        <v>49</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85">
@@ -4060,41 +4060,41 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021-12-11T13:50:00.0000000Z</t>
+          <t>2021-11-22T13:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2021-12-11T14:00:00.0000000Z</t>
+          <t>2021-11-22T14:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2021-12-11T13:50:08.3380000Z</t>
+          <t>2021-11-22T13:50:02.7260000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2021-12-11T13:58:46.5480000Z</t>
+          <t>2021-11-22T13:59:57.2840000Z</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>48330.24</v>
+        <v>58737.3</v>
       </c>
       <c r="G85" t="n">
-        <v>48413.38</v>
+        <v>59129.74</v>
       </c>
       <c r="H85" t="n">
-        <v>48249.48</v>
+        <v>58737.3</v>
       </c>
       <c r="I85" t="n">
-        <v>48335.95</v>
+        <v>58921.08</v>
       </c>
       <c r="J85" t="n">
-        <v>4.49081015</v>
+        <v>46.41295658</v>
       </c>
       <c r="K85" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86">
@@ -4103,41 +4103,41 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021-12-11T14:00:00.0000000Z</t>
+          <t>2021-11-22T14:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2021-12-11T14:10:00.0000000Z</t>
+          <t>2021-11-22T14:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2021-12-11T14:00:19.5360000Z</t>
+          <t>2021-11-22T14:00:02.6400000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2021-12-11T14:09:46.8480000Z</t>
+          <t>2021-11-22T14:09:56.2640000Z</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>48363.95</v>
+        <v>58955.42</v>
       </c>
       <c r="G86" t="n">
-        <v>48425.06</v>
+        <v>59097.9</v>
       </c>
       <c r="H86" t="n">
-        <v>48213.92</v>
+        <v>58736.79</v>
       </c>
       <c r="I86" t="n">
-        <v>48276.44</v>
+        <v>58753.96</v>
       </c>
       <c r="J86" t="n">
-        <v>6.97721082</v>
+        <v>11.0664643</v>
       </c>
       <c r="K86" t="n">
-        <v>80</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87">
@@ -4146,41 +4146,41 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021-12-11T14:10:00.0000000Z</t>
+          <t>2021-11-22T14:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-12-11T14:20:00.0000000Z</t>
+          <t>2021-11-22T14:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2021-12-11T14:10:07.0990000Z</t>
+          <t>2021-11-22T14:10:08.1580000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2021-12-11T14:19:51.1650000Z</t>
+          <t>2021-11-22T14:19:59.9640000Z</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>48305.74</v>
+        <v>58760.3</v>
       </c>
       <c r="G87" t="n">
-        <v>48343.59</v>
+        <v>58867.44</v>
       </c>
       <c r="H87" t="n">
-        <v>48234.83</v>
+        <v>58385.63</v>
       </c>
       <c r="I87" t="n">
-        <v>48325.84</v>
+        <v>58513.08</v>
       </c>
       <c r="J87" t="n">
-        <v>2.80852212</v>
+        <v>31.15791039</v>
       </c>
       <c r="K87" t="n">
-        <v>62</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -4189,41 +4189,41 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021-12-11T14:20:00.0000000Z</t>
+          <t>2021-11-22T14:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2021-12-11T14:30:00.0000000Z</t>
+          <t>2021-11-22T14:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2021-12-11T14:20:04.3260000Z</t>
+          <t>2021-11-22T14:20:00.2470000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2021-12-11T14:29:57.4420000Z</t>
+          <t>2021-11-22T14:29:55.8330000Z</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>48328.24</v>
+        <v>58506.98</v>
       </c>
       <c r="G88" t="n">
-        <v>48373.04</v>
+        <v>58560.86</v>
       </c>
       <c r="H88" t="n">
-        <v>48236.33</v>
+        <v>58190.5</v>
       </c>
       <c r="I88" t="n">
-        <v>48351.15</v>
+        <v>58281.11</v>
       </c>
       <c r="J88" t="n">
-        <v>1.34869416</v>
+        <v>44.94162077</v>
       </c>
       <c r="K88" t="n">
-        <v>55</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
@@ -4232,41 +4232,41 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021-12-11T14:30:00.0000000Z</t>
+          <t>2021-11-22T14:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2021-12-11T14:40:00.0000000Z</t>
+          <t>2021-11-22T14:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2021-12-11T14:30:03.4340000Z</t>
+          <t>2021-11-22T14:30:04.6580000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2021-12-11T14:39:21.2720000Z</t>
+          <t>2021-11-22T14:39:46.5160000Z</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>48338.05</v>
+        <v>58300.74</v>
       </c>
       <c r="G89" t="n">
-        <v>48368.83</v>
+        <v>58436.17</v>
       </c>
       <c r="H89" t="n">
-        <v>48250.07</v>
+        <v>58247.45</v>
       </c>
       <c r="I89" t="n">
-        <v>48331.24</v>
+        <v>58247.45</v>
       </c>
       <c r="J89" t="n">
-        <v>2.01878893</v>
+        <v>27.06309634</v>
       </c>
       <c r="K89" t="n">
-        <v>44</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90">
@@ -4275,41 +4275,41 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021-12-11T14:40:00.0000000Z</t>
+          <t>2021-11-22T14:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2021-12-11T14:50:00.0000000Z</t>
+          <t>2021-11-22T14:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2021-12-11T14:40:15.4030000Z</t>
+          <t>2021-11-22T14:40:01.9010000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2021-12-11T14:49:02.4630000Z</t>
+          <t>2021-11-22T14:49:50.2280000Z</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>48346.1</v>
+        <v>58259.15</v>
       </c>
       <c r="G90" t="n">
-        <v>48573.89</v>
+        <v>58373.7</v>
       </c>
       <c r="H90" t="n">
-        <v>48342.85</v>
+        <v>58247.22</v>
       </c>
       <c r="I90" t="n">
-        <v>48562.99</v>
+        <v>58263.48</v>
       </c>
       <c r="J90" t="n">
-        <v>1.62309424</v>
+        <v>30.59157696</v>
       </c>
       <c r="K90" t="n">
-        <v>93</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91">
@@ -4318,41 +4318,41 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021-12-11T14:50:00.0000000Z</t>
+          <t>2021-11-22T14:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2021-12-11T15:00:00.0000000Z</t>
+          <t>2021-11-22T15:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2021-12-11T14:50:09.1300000Z</t>
+          <t>2021-11-22T14:50:01.6020000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2021-12-11T14:59:55.0560000Z</t>
+          <t>2021-11-22T14:59:58.6120000Z</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>48521.54</v>
+        <v>58307.37</v>
       </c>
       <c r="G91" t="n">
-        <v>48572.75</v>
+        <v>58347</v>
       </c>
       <c r="H91" t="n">
-        <v>48423.35</v>
+        <v>58218.92</v>
       </c>
       <c r="I91" t="n">
-        <v>48510.79</v>
+        <v>58305.69</v>
       </c>
       <c r="J91" t="n">
-        <v>2.40123854</v>
+        <v>27.03464961</v>
       </c>
       <c r="K91" t="n">
-        <v>65</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92">
@@ -4361,41 +4361,41 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021-12-11T15:00:00.0000000Z</t>
+          <t>2021-11-22T15:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2021-12-11T15:10:00.0000000Z</t>
+          <t>2021-11-22T15:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2021-12-11T15:00:03.9330000Z</t>
+          <t>2021-11-22T15:00:03.7610000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2021-12-11T15:09:49.8100000Z</t>
+          <t>2021-11-22T15:09:59.9110000Z</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>48513.28</v>
+        <v>58340.94</v>
       </c>
       <c r="G92" t="n">
-        <v>48650.29</v>
+        <v>58485.54</v>
       </c>
       <c r="H92" t="n">
-        <v>48513.28</v>
+        <v>58112</v>
       </c>
       <c r="I92" t="n">
-        <v>48536.48</v>
+        <v>58139.26</v>
       </c>
       <c r="J92" t="n">
-        <v>1.58379769</v>
+        <v>24.91211962</v>
       </c>
       <c r="K92" t="n">
-        <v>50</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93">
@@ -4404,41 +4404,41 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021-12-11T15:10:00.0000000Z</t>
+          <t>2021-11-22T15:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2021-12-11T15:20:00.0000000Z</t>
+          <t>2021-11-22T15:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2021-12-11T15:10:08.1490000Z</t>
+          <t>2021-11-22T15:10:00.9350000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2021-12-11T15:19:51.2280000Z</t>
+          <t>2021-11-22T15:19:59.5750000Z</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>48541.33</v>
+        <v>58122.44</v>
       </c>
       <c r="G93" t="n">
-        <v>48556.09</v>
+        <v>58394.77</v>
       </c>
       <c r="H93" t="n">
-        <v>48464.28</v>
+        <v>58106.22</v>
       </c>
       <c r="I93" t="n">
-        <v>48553.19</v>
+        <v>58333.29</v>
       </c>
       <c r="J93" t="n">
-        <v>0.59140565</v>
+        <v>28.28601898</v>
       </c>
       <c r="K93" t="n">
-        <v>53</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94">
@@ -4447,41 +4447,41 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021-12-11T15:20:00.0000000Z</t>
+          <t>2021-11-22T15:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2021-12-11T15:30:00.0000000Z</t>
+          <t>2021-11-22T15:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2021-12-11T15:20:04.8990000Z</t>
+          <t>2021-11-22T15:20:03.1050000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2021-12-11T15:29:43.7840000Z</t>
+          <t>2021-11-22T15:29:59.5660000Z</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>48549.98</v>
+        <v>58345</v>
       </c>
       <c r="G94" t="n">
-        <v>48619.5</v>
+        <v>58407.08</v>
       </c>
       <c r="H94" t="n">
-        <v>48492.56</v>
+        <v>58147.14</v>
       </c>
       <c r="I94" t="n">
-        <v>48585.49</v>
+        <v>58205.47</v>
       </c>
       <c r="J94" t="n">
-        <v>1.74086012</v>
+        <v>19.73748904</v>
       </c>
       <c r="K94" t="n">
-        <v>79</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95">
@@ -4490,41 +4490,41 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021-12-11T15:30:00.0000000Z</t>
+          <t>2021-11-22T15:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2021-12-11T15:40:00.0000000Z</t>
+          <t>2021-11-22T15:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2021-12-11T15:30:04.3350000Z</t>
+          <t>2021-11-22T15:30:02.9240000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2021-12-11T15:39:58.9610000Z</t>
+          <t>2021-11-22T15:39:55.3580000Z</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>48579.79</v>
+        <v>58230.77</v>
       </c>
       <c r="G95" t="n">
-        <v>48714.21</v>
+        <v>58245.98</v>
       </c>
       <c r="H95" t="n">
-        <v>48579.14</v>
+        <v>57967.01</v>
       </c>
       <c r="I95" t="n">
-        <v>48708.61</v>
+        <v>58148.09</v>
       </c>
       <c r="J95" t="n">
-        <v>2.31276446</v>
+        <v>16.58814843</v>
       </c>
       <c r="K95" t="n">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
@@ -4533,41 +4533,41 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021-12-11T15:40:00.0000000Z</t>
+          <t>2021-11-22T15:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2021-12-11T15:50:00.0000000Z</t>
+          <t>2021-11-22T15:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2021-12-11T15:40:15.7430000Z</t>
+          <t>2021-11-22T15:40:02.2390000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2021-12-11T15:49:57.3410000Z</t>
+          <t>2021-11-22T15:49:57.4820000Z</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>48694.81</v>
+        <v>58215.69</v>
       </c>
       <c r="G96" t="n">
-        <v>48712.7</v>
+        <v>58273.43</v>
       </c>
       <c r="H96" t="n">
-        <v>48620.41</v>
+        <v>58181.18</v>
       </c>
       <c r="I96" t="n">
-        <v>48642.65</v>
+        <v>58245.5</v>
       </c>
       <c r="J96" t="n">
-        <v>1.6838959</v>
+        <v>4.33246497</v>
       </c>
       <c r="K96" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
@@ -4576,41 +4576,41 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021-12-11T15:50:00.0000000Z</t>
+          <t>2021-11-22T15:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2021-12-11T16:00:00.0000000Z</t>
+          <t>2021-11-22T16:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2021-12-11T15:50:06.9710000Z</t>
+          <t>2021-11-22T15:50:01.9220000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2021-12-11T15:59:55.1260000Z</t>
+          <t>2021-11-22T15:59:57.3270000Z</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>48617.3</v>
+        <v>58232.6</v>
       </c>
       <c r="G97" t="n">
-        <v>48810.28</v>
+        <v>58291.18</v>
       </c>
       <c r="H97" t="n">
-        <v>48617.3</v>
+        <v>58174.43</v>
       </c>
       <c r="I97" t="n">
-        <v>48810.28</v>
+        <v>58254.37</v>
       </c>
       <c r="J97" t="n">
-        <v>6.28311658</v>
+        <v>5.63470593</v>
       </c>
       <c r="K97" t="n">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
@@ -4619,41 +4619,41 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-12-11T16:00:00.0000000Z</t>
+          <t>2021-11-22T16:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2021-12-11T16:10:00.0000000Z</t>
+          <t>2021-11-22T16:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2021-12-11T16:00:02.7740000Z</t>
+          <t>2021-11-22T16:00:01.3770000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2021-12-11T16:09:59.2410000Z</t>
+          <t>2021-11-22T16:09:50.4370000Z</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>48773.55</v>
+        <v>58259.57</v>
       </c>
       <c r="G98" t="n">
-        <v>49157.43</v>
+        <v>58280.38</v>
       </c>
       <c r="H98" t="n">
-        <v>48741.05</v>
+        <v>58075.86</v>
       </c>
       <c r="I98" t="n">
-        <v>48825</v>
+        <v>58104.58</v>
       </c>
       <c r="J98" t="n">
-        <v>30.9021832</v>
+        <v>5.71847136</v>
       </c>
       <c r="K98" t="n">
-        <v>232</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -4662,41 +4662,41 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-12-11T16:10:00.0000000Z</t>
+          <t>2021-11-22T16:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2021-12-11T16:20:00.0000000Z</t>
+          <t>2021-11-22T16:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2021-12-11T16:10:00.2430000Z</t>
+          <t>2021-11-22T16:10:05.1220000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2021-12-11T16:19:52.3890000Z</t>
+          <t>2021-11-22T16:19:51.8040000Z</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>48800.27</v>
+        <v>58072.23</v>
       </c>
       <c r="G99" t="n">
-        <v>49151.79</v>
+        <v>58099.74</v>
       </c>
       <c r="H99" t="n">
-        <v>48773.6</v>
+        <v>57681.01</v>
       </c>
       <c r="I99" t="n">
-        <v>49107.19</v>
+        <v>58016.05</v>
       </c>
       <c r="J99" t="n">
-        <v>22.94100187</v>
+        <v>43.63980741</v>
       </c>
       <c r="K99" t="n">
-        <v>174</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100">
@@ -4705,41 +4705,41 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-12-11T16:20:00.0000000Z</t>
+          <t>2021-11-22T16:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2021-12-11T16:30:00.0000000Z</t>
+          <t>2021-11-22T16:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2021-12-11T16:20:14.1210000Z</t>
+          <t>2021-11-22T16:20:15.1800000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2021-12-11T16:29:55.4100000Z</t>
+          <t>2021-11-22T16:29:59.5990000Z</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>49111.96</v>
+        <v>58053.05</v>
       </c>
       <c r="G100" t="n">
-        <v>49301</v>
+        <v>58126.96</v>
       </c>
       <c r="H100" t="n">
-        <v>49049.12</v>
+        <v>57871.9</v>
       </c>
       <c r="I100" t="n">
-        <v>49196.6</v>
+        <v>57941.81</v>
       </c>
       <c r="J100" t="n">
-        <v>12.96537387</v>
+        <v>7.72545268</v>
       </c>
       <c r="K100" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
@@ -4748,41 +4748,41 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-12-11T16:30:00.0000000Z</t>
+          <t>2021-11-22T16:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2021-12-11T16:40:00.0000000Z</t>
+          <t>2021-11-22T16:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2021-12-11T16:30:08.2600000Z</t>
+          <t>2021-11-22T16:30:00.8380000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2021-12-11T16:39:55.1220000Z</t>
+          <t>2021-11-22T16:39:57.5630000Z</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>49202.36</v>
+        <v>57941.8</v>
       </c>
       <c r="G101" t="n">
-        <v>49290.22</v>
+        <v>58034.44</v>
       </c>
       <c r="H101" t="n">
-        <v>49106.77</v>
+        <v>57868.59</v>
       </c>
       <c r="I101" t="n">
-        <v>49202.39</v>
+        <v>57905.78</v>
       </c>
       <c r="J101" t="n">
-        <v>5.50354784</v>
+        <v>9.064774310000001</v>
       </c>
       <c r="K101" t="n">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
@@ -4791,41 +4791,41 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021-12-11T16:40:00.0000000Z</t>
+          <t>2021-11-22T16:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2021-12-11T16:50:00.0000000Z</t>
+          <t>2021-11-22T16:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2021-12-11T16:40:00.8130000Z</t>
+          <t>2021-11-22T16:40:15.1940000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2021-12-11T16:49:52.9260000Z</t>
+          <t>2021-11-22T16:49:55.8530000Z</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>49206.42</v>
+        <v>57926.28</v>
       </c>
       <c r="G102" t="n">
-        <v>49280.25</v>
+        <v>57976.63</v>
       </c>
       <c r="H102" t="n">
-        <v>48982.38</v>
+        <v>57769.77</v>
       </c>
       <c r="I102" t="n">
-        <v>49048.29</v>
+        <v>57832.74</v>
       </c>
       <c r="J102" t="n">
-        <v>4.6545981</v>
+        <v>11.52832534</v>
       </c>
       <c r="K102" t="n">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
@@ -4834,41 +4834,41 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021-12-11T16:50:00.0000000Z</t>
+          <t>2021-11-22T16:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2021-12-11T17:00:00.0000000Z</t>
+          <t>2021-11-22T17:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2021-12-11T16:50:29.7180000Z</t>
+          <t>2021-11-22T16:50:07.2560000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2021-12-11T16:59:42.0820000Z</t>
+          <t>2021-11-22T16:59:59.9960000Z</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>49016.4</v>
+        <v>57847.6</v>
       </c>
       <c r="G103" t="n">
-        <v>49076.06</v>
+        <v>57865.77</v>
       </c>
       <c r="H103" t="n">
-        <v>48971.03</v>
+        <v>57667.2</v>
       </c>
       <c r="I103" t="n">
-        <v>49031.08</v>
+        <v>57763.12</v>
       </c>
       <c r="J103" t="n">
-        <v>1.76604781</v>
+        <v>18.06378124</v>
       </c>
       <c r="K103" t="n">
-        <v>77</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104">
@@ -4877,41 +4877,41 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021-12-11T17:00:00.0000000Z</t>
+          <t>2021-11-22T17:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2021-12-11T17:10:00.0000000Z</t>
+          <t>2021-11-22T17:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2021-12-11T17:00:05.0100000Z</t>
+          <t>2021-11-22T17:00:00.0090000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2021-12-11T17:09:53.4830000Z</t>
+          <t>2021-11-22T17:09:56.1760000Z</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>49039.07</v>
+        <v>57763.12</v>
       </c>
       <c r="G104" t="n">
-        <v>49063.98</v>
+        <v>57793.89</v>
       </c>
       <c r="H104" t="n">
-        <v>48825</v>
+        <v>57564.95</v>
       </c>
       <c r="I104" t="n">
-        <v>48945.4</v>
+        <v>57628.15</v>
       </c>
       <c r="J104" t="n">
-        <v>16.71821869</v>
+        <v>30.08127404</v>
       </c>
       <c r="K104" t="n">
-        <v>138</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105">
@@ -4920,41 +4920,41 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021-12-11T17:10:00.0000000Z</t>
+          <t>2021-11-22T17:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2021-12-11T17:20:00.0000000Z</t>
+          <t>2021-11-22T17:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2021-12-11T17:10:01.3740000Z</t>
+          <t>2021-11-22T17:10:01.4480000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2021-12-11T17:19:52.6290000Z</t>
+          <t>2021-11-22T17:19:56.8180000Z</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>48935.67</v>
+        <v>57628.46</v>
       </c>
       <c r="G105" t="n">
-        <v>49004.54</v>
+        <v>57708.55</v>
       </c>
       <c r="H105" t="n">
-        <v>48882.68</v>
+        <v>57600.87</v>
       </c>
       <c r="I105" t="n">
-        <v>48976.73</v>
+        <v>57624.53</v>
       </c>
       <c r="J105" t="n">
-        <v>3.00259955</v>
+        <v>33.48447084</v>
       </c>
       <c r="K105" t="n">
-        <v>75</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106">
@@ -4963,41 +4963,41 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021-12-11T17:20:00.0000000Z</t>
+          <t>2021-11-22T17:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2021-12-11T17:30:00.0000000Z</t>
+          <t>2021-11-22T17:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2021-12-11T17:20:03.4400000Z</t>
+          <t>2021-11-22T17:20:06.4680000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2021-12-11T17:29:07.3760000Z</t>
+          <t>2021-11-22T17:29:57.5100000Z</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>48961.71</v>
+        <v>57631.16</v>
       </c>
       <c r="G106" t="n">
-        <v>49010.77</v>
+        <v>57648.77</v>
       </c>
       <c r="H106" t="n">
-        <v>48917.75</v>
+        <v>57520.68</v>
       </c>
       <c r="I106" t="n">
-        <v>48962.7</v>
+        <v>57564.85</v>
       </c>
       <c r="J106" t="n">
-        <v>0.94838953</v>
+        <v>11.37464294</v>
       </c>
       <c r="K106" t="n">
-        <v>58</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
@@ -5006,41 +5006,41 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021-12-11T17:30:00.0000000Z</t>
+          <t>2021-11-22T17:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2021-12-11T17:40:00.0000000Z</t>
+          <t>2021-11-22T17:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2021-12-11T17:30:03.4860000Z</t>
+          <t>2021-11-22T17:30:00.9990000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2021-12-11T17:39:49.9340000Z</t>
+          <t>2021-11-22T17:39:50.3870000Z</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>48971.81</v>
+        <v>57564.85</v>
       </c>
       <c r="G107" t="n">
-        <v>48993.07</v>
+        <v>57591.63</v>
       </c>
       <c r="H107" t="n">
-        <v>48845.53</v>
+        <v>57398</v>
       </c>
       <c r="I107" t="n">
-        <v>48886.44</v>
+        <v>57415.68</v>
       </c>
       <c r="J107" t="n">
-        <v>7.89850749</v>
+        <v>20.66704323</v>
       </c>
       <c r="K107" t="n">
-        <v>78</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108">
@@ -5049,41 +5049,41 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021-12-11T17:40:00.0000000Z</t>
+          <t>2021-11-22T17:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2021-12-11T17:50:00.0000000Z</t>
+          <t>2021-11-22T17:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-12-11T17:40:07.6190000Z</t>
+          <t>2021-11-22T17:40:03.3580000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2021-12-11T17:49:55.3210000Z</t>
+          <t>2021-11-22T17:49:57.3380000Z</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>48886.1</v>
+        <v>57416.83</v>
       </c>
       <c r="G108" t="n">
-        <v>48917.96</v>
+        <v>57505.59</v>
       </c>
       <c r="H108" t="n">
-        <v>48695.53</v>
+        <v>57344.71</v>
       </c>
       <c r="I108" t="n">
-        <v>48754.32</v>
+        <v>57499.54</v>
       </c>
       <c r="J108" t="n">
-        <v>4.78488123</v>
+        <v>7.62577796</v>
       </c>
       <c r="K108" t="n">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
@@ -5092,41 +5092,41 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021-12-11T17:50:00.0000000Z</t>
+          <t>2021-11-22T17:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2021-12-11T18:00:00.0000000Z</t>
+          <t>2021-11-22T18:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2021-12-11T17:50:35.4340000Z</t>
+          <t>2021-11-22T17:50:16.8450000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2021-12-11T17:59:55.0470000Z</t>
+          <t>2021-11-22T17:59:57.4440000Z</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>48726.12</v>
+        <v>57476.78</v>
       </c>
       <c r="G109" t="n">
-        <v>48771.23</v>
+        <v>57476.78</v>
       </c>
       <c r="H109" t="n">
-        <v>48597.88</v>
+        <v>57344.71</v>
       </c>
       <c r="I109" t="n">
-        <v>48723.62</v>
+        <v>57441.03</v>
       </c>
       <c r="J109" t="n">
-        <v>18.66690563</v>
+        <v>6.14740981</v>
       </c>
       <c r="K109" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
@@ -5135,41 +5135,41 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021-12-11T18:00:00.0000000Z</t>
+          <t>2021-11-22T18:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2021-12-11T18:10:00.0000000Z</t>
+          <t>2021-11-22T18:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2021-12-11T18:00:09.4400000Z</t>
+          <t>2021-11-22T18:00:05.6920000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2021-12-11T18:09:43.3290000Z</t>
+          <t>2021-11-22T18:09:52.6290000Z</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>48746.02</v>
+        <v>57455.33</v>
       </c>
       <c r="G110" t="n">
-        <v>48865.33</v>
+        <v>57461.26</v>
       </c>
       <c r="H110" t="n">
-        <v>48721.98</v>
+        <v>57266.27</v>
       </c>
       <c r="I110" t="n">
-        <v>48741.92</v>
+        <v>57317.4</v>
       </c>
       <c r="J110" t="n">
-        <v>3.59278116</v>
+        <v>17.73211981</v>
       </c>
       <c r="K110" t="n">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
@@ -5178,41 +5178,41 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021-12-11T18:10:00.0000000Z</t>
+          <t>2021-11-22T18:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2021-12-11T18:20:00.0000000Z</t>
+          <t>2021-11-22T18:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2021-12-11T18:10:01.3890000Z</t>
+          <t>2021-11-22T18:10:17.4160000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2021-12-11T18:19:49.4890000Z</t>
+          <t>2021-11-22T18:19:38.3670000Z</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>48740.42</v>
+        <v>57330.17</v>
       </c>
       <c r="G111" t="n">
-        <v>48778.43</v>
+        <v>57373.9</v>
       </c>
       <c r="H111" t="n">
-        <v>48622.01</v>
+        <v>57212</v>
       </c>
       <c r="I111" t="n">
-        <v>48672.41</v>
+        <v>57295.6</v>
       </c>
       <c r="J111" t="n">
-        <v>11.09961403</v>
+        <v>17.62484545</v>
       </c>
       <c r="K111" t="n">
-        <v>89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112">
@@ -5221,41 +5221,41 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021-12-11T18:20:00.0000000Z</t>
+          <t>2021-11-22T18:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2021-12-11T18:30:00.0000000Z</t>
+          <t>2021-11-22T18:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2021-12-11T18:20:36.8070000Z</t>
+          <t>2021-11-22T18:20:09.1010000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2021-12-11T18:29:57.5910000Z</t>
+          <t>2021-11-22T18:29:59.0220000Z</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>48663.5</v>
+        <v>57304.66</v>
       </c>
       <c r="G112" t="n">
-        <v>48691.22</v>
+        <v>57305.9</v>
       </c>
       <c r="H112" t="n">
-        <v>48580.42</v>
+        <v>57177.88</v>
       </c>
       <c r="I112" t="n">
-        <v>48632.88</v>
+        <v>57188.54</v>
       </c>
       <c r="J112" t="n">
-        <v>3.26861843</v>
+        <v>7.60597274</v>
       </c>
       <c r="K112" t="n">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
@@ -5264,41 +5264,41 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021-12-11T18:30:00.0000000Z</t>
+          <t>2021-11-22T18:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2021-12-11T18:40:00.0000000Z</t>
+          <t>2021-11-22T18:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2021-12-11T18:30:01.0800000Z</t>
+          <t>2021-11-22T18:30:02.9030000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2021-12-11T18:39:59.0620000Z</t>
+          <t>2021-11-22T18:39:57.8170000Z</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>48634.6</v>
+        <v>57208.29</v>
       </c>
       <c r="G113" t="n">
-        <v>48828.78</v>
+        <v>57253.49</v>
       </c>
       <c r="H113" t="n">
-        <v>48634.6</v>
+        <v>56820</v>
       </c>
       <c r="I113" t="n">
-        <v>48812.8</v>
+        <v>56867.6</v>
       </c>
       <c r="J113" t="n">
-        <v>3.47088858</v>
+        <v>101.75114181</v>
       </c>
       <c r="K113" t="n">
-        <v>69</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114">
@@ -5307,41 +5307,41 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021-12-11T18:40:00.0000000Z</t>
+          <t>2021-11-22T18:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2021-12-11T18:50:00.0000000Z</t>
+          <t>2021-11-22T18:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-12-11T18:40:08.0360000Z</t>
+          <t>2021-11-22T18:40:00.6200000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2021-12-11T18:49:36.6100000Z</t>
+          <t>2021-11-22T18:49:59.5030000Z</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>48813.51</v>
+        <v>56867.6</v>
       </c>
       <c r="G114" t="n">
-        <v>48899.25</v>
+        <v>56885.78</v>
       </c>
       <c r="H114" t="n">
-        <v>48768.53</v>
+        <v>56669.67</v>
       </c>
       <c r="I114" t="n">
-        <v>48883.21</v>
+        <v>56786.04</v>
       </c>
       <c r="J114" t="n">
-        <v>3.53993244</v>
+        <v>49.27009081</v>
       </c>
       <c r="K114" t="n">
-        <v>70</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115">
@@ -5350,41 +5350,41 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021-12-11T18:50:00.0000000Z</t>
+          <t>2021-11-22T18:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2021-12-11T19:00:00.0000000Z</t>
+          <t>2021-11-22T19:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2021-12-11T18:50:19.1320000Z</t>
+          <t>2021-11-22T18:50:02.7350000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2021-12-11T18:59:41.4340000Z</t>
+          <t>2021-11-22T18:59:59.0400000Z</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>48865.12</v>
+        <v>56764.81</v>
       </c>
       <c r="G115" t="n">
-        <v>48865.12</v>
+        <v>56794.57</v>
       </c>
       <c r="H115" t="n">
-        <v>48674.12</v>
+        <v>56449.21</v>
       </c>
       <c r="I115" t="n">
-        <v>48679.95</v>
+        <v>56488.54</v>
       </c>
       <c r="J115" t="n">
-        <v>2.26533738</v>
+        <v>68.14789412</v>
       </c>
       <c r="K115" t="n">
-        <v>57</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116">
@@ -5393,41 +5393,41 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021-12-11T19:00:00.0000000Z</t>
+          <t>2021-11-22T19:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2021-12-11T19:10:00.0000000Z</t>
+          <t>2021-11-22T19:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-12-11T19:00:00.4690000Z</t>
+          <t>2021-11-22T19:00:02.3660000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2021-12-11T19:09:58.6680000Z</t>
+          <t>2021-11-22T19:09:56.8570000Z</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>48713.47</v>
+        <v>56477.4</v>
       </c>
       <c r="G116" t="n">
-        <v>48799.73</v>
+        <v>57100</v>
       </c>
       <c r="H116" t="n">
-        <v>48684.51</v>
+        <v>56318.46</v>
       </c>
       <c r="I116" t="n">
-        <v>48771.16</v>
+        <v>56894.94</v>
       </c>
       <c r="J116" t="n">
-        <v>1.28067739</v>
+        <v>112.69466628</v>
       </c>
       <c r="K116" t="n">
-        <v>50</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117">
@@ -5436,41 +5436,41 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021-12-11T19:10:00.0000000Z</t>
+          <t>2021-11-22T19:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2021-12-11T19:20:00.0000000Z</t>
+          <t>2021-11-22T19:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2021-12-11T19:10:10.9420000Z</t>
+          <t>2021-11-22T19:10:17.9760000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2021-12-11T19:19:51.5670000Z</t>
+          <t>2021-11-22T19:19:51.9440000Z</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>48768.32</v>
+        <v>56922.43</v>
       </c>
       <c r="G117" t="n">
-        <v>48824</v>
+        <v>57042.54</v>
       </c>
       <c r="H117" t="n">
-        <v>48731.3</v>
+        <v>56560</v>
       </c>
       <c r="I117" t="n">
-        <v>48767.69</v>
+        <v>56602.61</v>
       </c>
       <c r="J117" t="n">
-        <v>1.86437866</v>
+        <v>26.56982904</v>
       </c>
       <c r="K117" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118">
@@ -5479,41 +5479,41 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021-12-11T19:20:00.0000000Z</t>
+          <t>2021-11-22T19:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2021-12-11T19:30:00.0000000Z</t>
+          <t>2021-11-22T19:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-12-11T19:20:10.4360000Z</t>
+          <t>2021-11-22T19:20:01.0340000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2021-12-11T19:29:50.2660000Z</t>
+          <t>2021-11-22T19:29:54.7230000Z</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>48760.48</v>
+        <v>56543.08</v>
       </c>
       <c r="G118" t="n">
-        <v>48821.16</v>
+        <v>56566.93</v>
       </c>
       <c r="H118" t="n">
-        <v>48726.74</v>
+        <v>56195</v>
       </c>
       <c r="I118" t="n">
-        <v>48730.97</v>
+        <v>56202.36</v>
       </c>
       <c r="J118" t="n">
-        <v>1.8179604</v>
+        <v>34.80110052</v>
       </c>
       <c r="K118" t="n">
-        <v>56</v>
+        <v>528</v>
       </c>
     </row>
     <row r="119">
@@ -5522,41 +5522,41 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021-12-11T19:30:00.0000000Z</t>
+          <t>2021-11-22T19:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2021-12-11T19:40:00.0000000Z</t>
+          <t>2021-11-22T19:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2021-12-11T19:30:19.3940000Z</t>
+          <t>2021-11-22T19:30:01.1060000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2021-12-11T19:39:52.5370000Z</t>
+          <t>2021-11-22T19:39:59.9500000Z</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>48766.33</v>
+        <v>56199.86</v>
       </c>
       <c r="G119" t="n">
-        <v>48766.33</v>
+        <v>56489.08</v>
       </c>
       <c r="H119" t="n">
-        <v>48525</v>
+        <v>55993.3</v>
       </c>
       <c r="I119" t="n">
-        <v>48562.89</v>
+        <v>56021.68</v>
       </c>
       <c r="J119" t="n">
-        <v>45.28055037</v>
+        <v>54.59829247</v>
       </c>
       <c r="K119" t="n">
-        <v>209</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120">
@@ -5565,41 +5565,41 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021-12-11T19:40:00.0000000Z</t>
+          <t>2021-11-22T19:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2021-12-11T19:50:00.0000000Z</t>
+          <t>2021-11-22T19:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-12-11T19:40:06.7650000Z</t>
+          <t>2021-11-22T19:40:01.6330000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2021-12-11T19:49:44.8340000Z</t>
+          <t>2021-11-22T19:49:52.8780000Z</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>48552.83</v>
+        <v>56000</v>
       </c>
       <c r="G120" t="n">
-        <v>48581.41</v>
+        <v>56420</v>
       </c>
       <c r="H120" t="n">
-        <v>48500</v>
+        <v>55931</v>
       </c>
       <c r="I120" t="n">
-        <v>48521.19</v>
+        <v>56193.4</v>
       </c>
       <c r="J120" t="n">
-        <v>5.12399423</v>
+        <v>17.18958476</v>
       </c>
       <c r="K120" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121">
@@ -5608,41 +5608,41 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021-12-11T19:50:00.0000000Z</t>
+          <t>2021-11-22T19:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2021-12-11T20:00:00.0000000Z</t>
+          <t>2021-11-22T20:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-12-11T19:50:09.7600000Z</t>
+          <t>2021-11-22T19:50:01.3480000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2021-12-11T19:59:52.8260000Z</t>
+          <t>2021-11-22T19:59:47.4320000Z</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>48547.48</v>
+        <v>56150</v>
       </c>
       <c r="G121" t="n">
-        <v>48606.08</v>
+        <v>56171.97</v>
       </c>
       <c r="H121" t="n">
-        <v>48397.64</v>
+        <v>55800</v>
       </c>
       <c r="I121" t="n">
-        <v>48397.64</v>
+        <v>55979.76</v>
       </c>
       <c r="J121" t="n">
-        <v>13.29686453</v>
+        <v>51.85746398</v>
       </c>
       <c r="K121" t="n">
-        <v>118</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122">
@@ -5651,41 +5651,41 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021-12-11T20:00:00.0000000Z</t>
+          <t>2021-11-22T20:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2021-12-11T20:10:00.0000000Z</t>
+          <t>2021-11-22T20:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-12-11T20:00:36.8030000Z</t>
+          <t>2021-11-22T20:00:00.9270000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2021-12-11T20:09:57.1960000Z</t>
+          <t>2021-11-22T20:09:58.4910000Z</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>48461.48</v>
+        <v>56026.97</v>
       </c>
       <c r="G122" t="n">
-        <v>48572.79</v>
+        <v>56342.29</v>
       </c>
       <c r="H122" t="n">
-        <v>48441.06</v>
+        <v>55871.86</v>
       </c>
       <c r="I122" t="n">
-        <v>48528.07</v>
+        <v>56273.35</v>
       </c>
       <c r="J122" t="n">
-        <v>10.16406038</v>
+        <v>34.82450697</v>
       </c>
       <c r="K122" t="n">
-        <v>92</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123">
@@ -5694,41 +5694,41 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021-12-11T20:10:00.0000000Z</t>
+          <t>2021-11-22T20:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2021-12-11T20:20:00.0000000Z</t>
+          <t>2021-11-22T20:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2021-12-11T20:10:10.0400000Z</t>
+          <t>2021-11-22T20:10:00.5890000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2021-12-11T20:19:50.2460000Z</t>
+          <t>2021-11-22T20:19:52.3450000Z</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>48534.68</v>
+        <v>56263.5</v>
       </c>
       <c r="G123" t="n">
-        <v>48573.39</v>
+        <v>56406.42</v>
       </c>
       <c r="H123" t="n">
-        <v>48447.67</v>
+        <v>56110.28</v>
       </c>
       <c r="I123" t="n">
-        <v>48511.58</v>
+        <v>56298.75</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6399422300000001</v>
+        <v>29.28402274</v>
       </c>
       <c r="K123" t="n">
-        <v>55</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124">
@@ -5737,41 +5737,41 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021-12-11T20:20:00.0000000Z</t>
+          <t>2021-11-22T20:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2021-12-11T20:30:00.0000000Z</t>
+          <t>2021-11-22T20:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-12-11T20:20:04.2730000Z</t>
+          <t>2021-11-22T20:20:08.1670000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2021-12-11T20:29:59.3240000Z</t>
+          <t>2021-11-22T20:29:57.6200000Z</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>48520.74</v>
+        <v>56314.62</v>
       </c>
       <c r="G124" t="n">
-        <v>48604.91</v>
+        <v>56389.92</v>
       </c>
       <c r="H124" t="n">
-        <v>48455.44</v>
+        <v>56000</v>
       </c>
       <c r="I124" t="n">
-        <v>48583.46</v>
+        <v>56053.77</v>
       </c>
       <c r="J124" t="n">
-        <v>8.084984690000001</v>
+        <v>20.30895363</v>
       </c>
       <c r="K124" t="n">
-        <v>91</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125">
@@ -5780,41 +5780,41 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021-12-11T20:30:00.0000000Z</t>
+          <t>2021-11-22T20:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2021-12-11T20:40:00.0000000Z</t>
+          <t>2021-11-22T20:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-12-11T20:30:02.3610000Z</t>
+          <t>2021-11-22T20:30:09.1900000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2021-12-11T20:39:39.2640000Z</t>
+          <t>2021-11-22T20:39:59.5270000Z</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>48583.45</v>
+        <v>56033.76</v>
       </c>
       <c r="G125" t="n">
-        <v>48718.12</v>
+        <v>56257.11</v>
       </c>
       <c r="H125" t="n">
-        <v>48506.6</v>
+        <v>56000</v>
       </c>
       <c r="I125" t="n">
-        <v>48676.11</v>
+        <v>56222.23</v>
       </c>
       <c r="J125" t="n">
-        <v>12.72783979</v>
+        <v>21.41637783</v>
       </c>
       <c r="K125" t="n">
-        <v>145</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126">
@@ -5823,41 +5823,41 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021-12-11T20:40:00.0000000Z</t>
+          <t>2021-11-22T20:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2021-12-11T20:50:00.0000000Z</t>
+          <t>2021-11-22T20:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-12-11T20:40:06.6450000Z</t>
+          <t>2021-11-22T20:40:04.1380000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2021-12-11T20:49:51.7090000Z</t>
+          <t>2021-11-22T20:49:46.8920000Z</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>48653.58</v>
+        <v>56225.34</v>
       </c>
       <c r="G126" t="n">
-        <v>48746.82</v>
+        <v>56234.77</v>
       </c>
       <c r="H126" t="n">
-        <v>48627.7</v>
+        <v>55985</v>
       </c>
       <c r="I126" t="n">
-        <v>48672.35</v>
+        <v>56000</v>
       </c>
       <c r="J126" t="n">
-        <v>6.50156289</v>
+        <v>19.85911186</v>
       </c>
       <c r="K126" t="n">
-        <v>88</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127">
@@ -5866,41 +5866,41 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021-12-11T20:50:00.0000000Z</t>
+          <t>2021-11-22T20:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2021-12-11T21:00:00.0000000Z</t>
+          <t>2021-11-22T21:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-12-11T20:50:07.1900000Z</t>
+          <t>2021-11-22T20:50:00.6560000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2021-12-11T20:59:56.0510000Z</t>
+          <t>2021-11-22T20:59:59.3650000Z</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>48654.24</v>
+        <v>56000</v>
       </c>
       <c r="G127" t="n">
-        <v>48708.91</v>
+        <v>56164.06</v>
       </c>
       <c r="H127" t="n">
-        <v>48568.93</v>
+        <v>55732</v>
       </c>
       <c r="I127" t="n">
-        <v>48593.31</v>
+        <v>55923.08</v>
       </c>
       <c r="J127" t="n">
-        <v>4.90954193</v>
+        <v>50.7678562</v>
       </c>
       <c r="K127" t="n">
-        <v>94</v>
+        <v>695</v>
       </c>
     </row>
     <row r="128">
@@ -5909,41 +5909,41 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021-12-11T21:00:00.0000000Z</t>
+          <t>2021-11-22T21:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2021-12-11T21:10:00.0000000Z</t>
+          <t>2021-11-22T21:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-12-11T21:00:10.4580000Z</t>
+          <t>2021-11-22T21:00:00.3740000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2021-12-11T21:09:58.7480000Z</t>
+          <t>2021-11-22T21:09:58.2260000Z</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>48588.19</v>
+        <v>55911.81</v>
       </c>
       <c r="G128" t="n">
-        <v>48588.19</v>
+        <v>56080.89</v>
       </c>
       <c r="H128" t="n">
-        <v>48423.35</v>
+        <v>55628.57</v>
       </c>
       <c r="I128" t="n">
-        <v>48497.63</v>
+        <v>55797.24</v>
       </c>
       <c r="J128" t="n">
-        <v>10.08386464</v>
+        <v>30.3124367</v>
       </c>
       <c r="K128" t="n">
-        <v>130</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129">
@@ -5952,41 +5952,41 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021-12-11T21:10:00.0000000Z</t>
+          <t>2021-11-22T21:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2021-12-11T21:20:00.0000000Z</t>
+          <t>2021-11-22T21:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-12-11T21:10:00.0420000Z</t>
+          <t>2021-11-22T21:10:01.7250000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2021-12-11T21:19:56.4940000Z</t>
+          <t>2021-11-22T21:19:59.1730000Z</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>48497.63</v>
+        <v>55762.67</v>
       </c>
       <c r="G129" t="n">
-        <v>48542.15</v>
+        <v>55960</v>
       </c>
       <c r="H129" t="n">
-        <v>48439.03</v>
+        <v>55660.7</v>
       </c>
       <c r="I129" t="n">
-        <v>48539.87</v>
+        <v>55795.51</v>
       </c>
       <c r="J129" t="n">
-        <v>0.63876423</v>
+        <v>39.27085606</v>
       </c>
       <c r="K129" t="n">
-        <v>55</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130">
@@ -5995,41 +5995,41 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021-12-11T21:20:00.0000000Z</t>
+          <t>2021-11-22T21:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2021-12-11T21:30:00.0000000Z</t>
+          <t>2021-11-22T21:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-12-11T21:20:08.0030000Z</t>
+          <t>2021-11-22T21:20:04.3650000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2021-12-11T21:29:49.4580000Z</t>
+          <t>2021-11-22T21:29:58.8540000Z</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>48536.98</v>
+        <v>55778.49</v>
       </c>
       <c r="G130" t="n">
-        <v>48658.8</v>
+        <v>56073.69</v>
       </c>
       <c r="H130" t="n">
-        <v>48517.1</v>
+        <v>55752.43</v>
       </c>
       <c r="I130" t="n">
-        <v>48551.47</v>
+        <v>55853.14</v>
       </c>
       <c r="J130" t="n">
-        <v>15.98801222</v>
+        <v>26.20510989</v>
       </c>
       <c r="K130" t="n">
-        <v>119</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131">
@@ -6038,41 +6038,41 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021-12-11T21:30:00.0000000Z</t>
+          <t>2021-11-22T21:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2021-12-11T21:40:00.0000000Z</t>
+          <t>2021-11-22T21:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2021-12-11T21:30:02.6640000Z</t>
+          <t>2021-11-22T21:30:03.0970000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2021-12-11T21:39:52.8100000Z</t>
+          <t>2021-11-22T21:39:56.6100000Z</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>48577.17</v>
+        <v>55877.94</v>
       </c>
       <c r="G131" t="n">
-        <v>48633.68</v>
+        <v>56457.6</v>
       </c>
       <c r="H131" t="n">
-        <v>48423.35</v>
+        <v>55834.41</v>
       </c>
       <c r="I131" t="n">
-        <v>48516.3</v>
+        <v>56280.54</v>
       </c>
       <c r="J131" t="n">
-        <v>3.63677837</v>
+        <v>21.49137097</v>
       </c>
       <c r="K131" t="n">
-        <v>89</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132">
@@ -6081,41 +6081,41 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021-12-11T21:40:00.0000000Z</t>
+          <t>2021-11-22T21:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2021-12-11T21:50:00.0000000Z</t>
+          <t>2021-11-22T21:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-12-11T21:40:15.8350000Z</t>
+          <t>2021-11-22T21:40:10.0000000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2021-12-11T21:49:59.5350000Z</t>
+          <t>2021-11-22T21:49:26.1120000Z</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>48511.96</v>
+        <v>56262.71</v>
       </c>
       <c r="G132" t="n">
-        <v>48648.7</v>
+        <v>56262.71</v>
       </c>
       <c r="H132" t="n">
-        <v>48457.29</v>
+        <v>55947.79</v>
       </c>
       <c r="I132" t="n">
-        <v>48648.7</v>
+        <v>56036.03</v>
       </c>
       <c r="J132" t="n">
-        <v>5.94924093</v>
+        <v>14.39198378</v>
       </c>
       <c r="K132" t="n">
-        <v>67</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133">
@@ -6124,41 +6124,41 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021-12-11T21:50:00.0000000Z</t>
+          <t>2021-11-22T21:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2021-12-11T22:00:00.0000000Z</t>
+          <t>2021-11-22T22:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-12-11T21:50:24.0830000Z</t>
+          <t>2021-11-22T21:50:13.5950000Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2021-12-11T21:59:51.0750000Z</t>
+          <t>2021-11-22T21:59:57.8730000Z</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>48638.3</v>
+        <v>56025</v>
       </c>
       <c r="G133" t="n">
-        <v>48849</v>
+        <v>56316</v>
       </c>
       <c r="H133" t="n">
-        <v>48631.1</v>
+        <v>56019.33</v>
       </c>
       <c r="I133" t="n">
-        <v>48832.11</v>
+        <v>56287.98</v>
       </c>
       <c r="J133" t="n">
-        <v>5.6436243</v>
+        <v>9.462731890000001</v>
       </c>
       <c r="K133" t="n">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134">
@@ -6167,41 +6167,41 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021-12-11T22:00:00.0000000Z</t>
+          <t>2021-11-22T22:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2021-12-11T22:10:00.0000000Z</t>
+          <t>2021-11-22T22:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2021-12-11T22:00:01.3120000Z</t>
+          <t>2021-11-22T22:00:04.3270000Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2021-12-11T22:09:37.8400000Z</t>
+          <t>2021-11-22T22:09:59.0860000Z</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>48815.66</v>
+        <v>56272.36</v>
       </c>
       <c r="G134" t="n">
-        <v>48877.69</v>
+        <v>56507</v>
       </c>
       <c r="H134" t="n">
-        <v>48742.45</v>
+        <v>56228.79</v>
       </c>
       <c r="I134" t="n">
-        <v>48831.57</v>
+        <v>56228.79</v>
       </c>
       <c r="J134" t="n">
-        <v>7.083824</v>
+        <v>12.51832105</v>
       </c>
       <c r="K134" t="n">
-        <v>81</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135">
@@ -6210,41 +6210,41 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021-12-11T22:10:00.0000000Z</t>
+          <t>2021-11-22T22:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2021-12-11T22:20:00.0000000Z</t>
+          <t>2021-11-22T22:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2021-12-11T22:10:09.1890000Z</t>
+          <t>2021-11-22T22:10:03.9030000Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2021-12-11T22:19:14.6320000Z</t>
+          <t>2021-11-22T22:19:58.2820000Z</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>48831.57</v>
+        <v>56236.34</v>
       </c>
       <c r="G135" t="n">
-        <v>48835.62</v>
+        <v>56319.14</v>
       </c>
       <c r="H135" t="n">
-        <v>48755.05</v>
+        <v>56143.01</v>
       </c>
       <c r="I135" t="n">
-        <v>48797.2</v>
+        <v>56143.43</v>
       </c>
       <c r="J135" t="n">
-        <v>1.07642662</v>
+        <v>6.92813848</v>
       </c>
       <c r="K135" t="n">
-        <v>49</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136">
@@ -6253,41 +6253,41 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021-12-11T22:20:00.0000000Z</t>
+          <t>2021-11-22T22:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2021-12-11T22:30:00.0000000Z</t>
+          <t>2021-11-22T22:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-12-11T22:20:04.4810000Z</t>
+          <t>2021-11-22T22:20:05.0830000Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2021-12-11T22:29:22.0730000Z</t>
+          <t>2021-11-22T22:29:58.3380000Z</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>48814.89</v>
+        <v>56137.91</v>
       </c>
       <c r="G136" t="n">
-        <v>48814.89</v>
+        <v>56344.23</v>
       </c>
       <c r="H136" t="n">
-        <v>48685.98</v>
+        <v>56130.26</v>
       </c>
       <c r="I136" t="n">
-        <v>48780.81</v>
+        <v>56318.91</v>
       </c>
       <c r="J136" t="n">
-        <v>8.992864969999999</v>
+        <v>11.11807275</v>
       </c>
       <c r="K136" t="n">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137">
@@ -6296,41 +6296,41 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021-12-11T22:30:00.0000000Z</t>
+          <t>2021-11-22T22:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2021-12-11T22:40:00.0000000Z</t>
+          <t>2021-11-22T22:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-12-11T22:30:32.5600000Z</t>
+          <t>2021-11-22T22:30:09.1310000Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2021-12-11T22:39:48.2290000Z</t>
+          <t>2021-11-22T22:39:58.0760000Z</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>48774.89</v>
+        <v>56318.91</v>
       </c>
       <c r="G137" t="n">
-        <v>48925.49</v>
+        <v>56592.1</v>
       </c>
       <c r="H137" t="n">
-        <v>48774.89</v>
+        <v>56290.17</v>
       </c>
       <c r="I137" t="n">
-        <v>48883.74</v>
+        <v>56568.83</v>
       </c>
       <c r="J137" t="n">
-        <v>3.48244509</v>
+        <v>12.7164226</v>
       </c>
       <c r="K137" t="n">
-        <v>58</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138">
@@ -6339,41 +6339,41 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021-12-11T22:40:00.0000000Z</t>
+          <t>2021-11-22T22:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2021-12-11T22:50:00.0000000Z</t>
+          <t>2021-11-22T22:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-12-11T22:40:23.4230000Z</t>
+          <t>2021-11-22T22:40:01.4340000Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2021-12-11T22:49:30.6970000Z</t>
+          <t>2021-11-22T22:49:53.2910000Z</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>48896.25</v>
+        <v>56578.01</v>
       </c>
       <c r="G138" t="n">
-        <v>49170.7</v>
+        <v>56741.17</v>
       </c>
       <c r="H138" t="n">
-        <v>48896.25</v>
+        <v>56525.31</v>
       </c>
       <c r="I138" t="n">
-        <v>48948.74</v>
+        <v>56714.9</v>
       </c>
       <c r="J138" t="n">
-        <v>15.10222024</v>
+        <v>31.97672597</v>
       </c>
       <c r="K138" t="n">
-        <v>120</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139">
@@ -6382,41 +6382,41 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021-12-11T22:50:00.0000000Z</t>
+          <t>2021-11-22T22:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2021-12-11T23:00:00.0000000Z</t>
+          <t>2021-11-22T23:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-12-11T22:50:05.4400000Z</t>
+          <t>2021-11-22T22:50:06.8600000Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2021-12-11T22:59:34.8720000Z</t>
+          <t>2021-11-22T22:59:52.6370000Z</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>48959.44</v>
+        <v>56711.81</v>
       </c>
       <c r="G139" t="n">
-        <v>48991.4</v>
+        <v>56756.1</v>
       </c>
       <c r="H139" t="n">
-        <v>48844.91</v>
+        <v>56611.77</v>
       </c>
       <c r="I139" t="n">
-        <v>48866.28</v>
+        <v>56753.09</v>
       </c>
       <c r="J139" t="n">
-        <v>7.57516964</v>
+        <v>10.70317357</v>
       </c>
       <c r="K139" t="n">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
@@ -6425,41 +6425,41 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021-12-11T23:00:00.0000000Z</t>
+          <t>2021-11-22T23:00:00.0000000Z</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2021-12-11T23:10:00.0000000Z</t>
+          <t>2021-11-22T23:10:00.0000000Z</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-12-11T23:00:11.9590000Z</t>
+          <t>2021-11-22T23:00:13.8880000Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2021-12-11T23:09:46.0560000Z</t>
+          <t>2021-11-22T23:09:54.6300000Z</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>48857.87</v>
+        <v>56715.33</v>
       </c>
       <c r="G140" t="n">
-        <v>49182.93</v>
+        <v>56746.87</v>
       </c>
       <c r="H140" t="n">
-        <v>48825</v>
+        <v>56410.34</v>
       </c>
       <c r="I140" t="n">
-        <v>49145.8</v>
+        <v>56455.35</v>
       </c>
       <c r="J140" t="n">
-        <v>12.18091751</v>
+        <v>52.20434973</v>
       </c>
       <c r="K140" t="n">
-        <v>93</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141">
@@ -6468,41 +6468,41 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021-12-11T23:10:00.0000000Z</t>
+          <t>2021-11-22T23:10:00.0000000Z</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2021-12-11T23:20:00.0000000Z</t>
+          <t>2021-11-22T23:20:00.0000000Z</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-12-11T23:10:09.2500000Z</t>
+          <t>2021-11-22T23:10:12.3750000Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2021-12-11T23:19:59.4150000Z</t>
+          <t>2021-11-22T23:19:46.2640000Z</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>49156.41</v>
+        <v>56418.05</v>
       </c>
       <c r="G141" t="n">
-        <v>49420.72</v>
+        <v>56551.29</v>
       </c>
       <c r="H141" t="n">
-        <v>49076.31</v>
+        <v>56399.99</v>
       </c>
       <c r="I141" t="n">
-        <v>49283.93</v>
+        <v>56496.91</v>
       </c>
       <c r="J141" t="n">
-        <v>22.52316738</v>
+        <v>41.52322277</v>
       </c>
       <c r="K141" t="n">
-        <v>161</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142">
@@ -6511,41 +6511,41 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021-12-11T23:20:00.0000000Z</t>
+          <t>2021-11-22T23:20:00.0000000Z</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2021-12-11T23:30:00.0000000Z</t>
+          <t>2021-11-22T23:30:00.0000000Z</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-12-11T23:20:08.9960000Z</t>
+          <t>2021-11-22T23:20:00.8540000Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2021-12-11T23:29:40.6860000Z</t>
+          <t>2021-11-22T23:29:50.1520000Z</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>49256.63</v>
+        <v>56497.77</v>
       </c>
       <c r="G142" t="n">
-        <v>49381.41</v>
+        <v>56552.89</v>
       </c>
       <c r="H142" t="n">
-        <v>49213.98</v>
+        <v>56332.63</v>
       </c>
       <c r="I142" t="n">
-        <v>49379.44</v>
+        <v>56447.22</v>
       </c>
       <c r="J142" t="n">
-        <v>4.86230832</v>
+        <v>11.05294297</v>
       </c>
       <c r="K142" t="n">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
@@ -6554,41 +6554,41 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021-12-11T23:30:00.0000000Z</t>
+          <t>2021-11-22T23:30:00.0000000Z</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2021-12-11T23:40:00.0000000Z</t>
+          <t>2021-11-22T23:40:00.0000000Z</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-12-11T23:30:02.3860000Z</t>
+          <t>2021-11-22T23:30:02.0690000Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2021-12-11T23:39:56.7770000Z</t>
+          <t>2021-11-22T23:39:59.1830000Z</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>49399.25</v>
+        <v>56431.01</v>
       </c>
       <c r="G143" t="n">
-        <v>49539.4</v>
+        <v>56491.98</v>
       </c>
       <c r="H143" t="n">
-        <v>49316.44</v>
+        <v>56302.23</v>
       </c>
       <c r="I143" t="n">
-        <v>49327.03</v>
+        <v>56362.77</v>
       </c>
       <c r="J143" t="n">
-        <v>11.47646035</v>
+        <v>4.45261655</v>
       </c>
       <c r="K143" t="n">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144">
@@ -6597,41 +6597,41 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021-12-11T23:40:00.0000000Z</t>
+          <t>2021-11-22T23:40:00.0000000Z</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2021-12-11T23:50:00.0000000Z</t>
+          <t>2021-11-22T23:50:00.0000000Z</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-12-11T23:40:03.6450000Z</t>
+          <t>2021-11-22T23:40:04.9050000Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2021-12-11T23:49:42.4810000Z</t>
+          <t>2021-11-22T23:49:54.5170000Z</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>49300</v>
+        <v>56368</v>
       </c>
       <c r="G144" t="n">
-        <v>49317.83</v>
+        <v>56444.2</v>
       </c>
       <c r="H144" t="n">
-        <v>49148.02</v>
+        <v>56260</v>
       </c>
       <c r="I144" t="n">
-        <v>49170.1</v>
+        <v>56437.04</v>
       </c>
       <c r="J144" t="n">
-        <v>4.62383864</v>
+        <v>27.38240414</v>
       </c>
       <c r="K144" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
@@ -6640,41 +6640,41 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021-12-11T23:50:00.0000000Z</t>
+          <t>2021-11-22T23:50:00.0000000Z</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2021-12-12T00:00:00.0000000Z</t>
+          <t>2021-11-23T00:00:00.0000000Z</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-12-11T23:50:14.0230000Z</t>
+          <t>2021-11-22T23:50:05.2900000Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2021-12-11T23:59:58.8930000Z</t>
+          <t>2021-11-22T23:59:55.9260000Z</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>49198.51</v>
+        <v>56438.14</v>
       </c>
       <c r="G145" t="n">
-        <v>49411.67</v>
+        <v>56456.4</v>
       </c>
       <c r="H145" t="n">
-        <v>49198.51</v>
+        <v>56284.9</v>
       </c>
       <c r="I145" t="n">
-        <v>49400.54</v>
+        <v>56294.11</v>
       </c>
       <c r="J145" t="n">
-        <v>9.253829379999999</v>
+        <v>7.36712361</v>
       </c>
       <c r="K145" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
